--- a/每週買賣報表/全損益.xlsx
+++ b/每週買賣報表/全損益.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -999,7 +999,7 @@
         <v>37785</v>
       </c>
       <c r="B77">
-        <v>454.660362612852</v>
+        <v>454.5813742068584</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>37792</v>
       </c>
       <c r="B78">
-        <v>642.7060655825438</v>
+        <v>642.7242979573147</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>37799</v>
       </c>
       <c r="B79">
-        <v>550.1627151372608</v>
+        <v>550.2528284838502</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>37806</v>
       </c>
       <c r="B80">
-        <v>750.1672729128489</v>
+        <v>750.2146327310148</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>37813</v>
       </c>
       <c r="B81">
-        <v>971.6639236926583</v>
+        <v>971.7364208539692</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>37820</v>
       </c>
       <c r="B82">
-        <v>1105.912043962173</v>
+        <v>1105.845905645766</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>37827</v>
       </c>
       <c r="B83">
-        <v>1262.3613586893</v>
+        <v>1262.36831336865</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>37834</v>
       </c>
       <c r="B84">
-        <v>1250.101028490221</v>
+        <v>1250.107983169572</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>37841</v>
       </c>
       <c r="B85">
-        <v>1118.098857848304</v>
+        <v>1115.910961642286</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>37848</v>
       </c>
       <c r="B86">
-        <v>1126.191963534689</v>
+        <v>1137.219300372039</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>37855</v>
       </c>
       <c r="B87">
-        <v>1343.039304422085</v>
+        <v>1366.223000678448</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>37862</v>
       </c>
       <c r="B88">
-        <v>1282.711440905672</v>
+        <v>1298.485073286814</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>37869</v>
       </c>
       <c r="B89">
-        <v>1164.073102746937</v>
+        <v>1175.45193465508</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>37876</v>
       </c>
       <c r="B90">
-        <v>1028.659157922268</v>
+        <v>1032.61014424628</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>37883</v>
       </c>
       <c r="B91">
-        <v>1247.506975753904</v>
+        <v>1269.233176678848</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>37890</v>
       </c>
       <c r="B92">
-        <v>1287.519906780944</v>
+        <v>1299.237647730582</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>37897</v>
       </c>
       <c r="B93">
-        <v>1467.30404401067</v>
+        <v>1492.915297524189</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>37904</v>
       </c>
       <c r="B94">
-        <v>1754.312822420701</v>
+        <v>1800.694771893767</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>37911</v>
       </c>
       <c r="B95">
-        <v>1735.959218278868</v>
+        <v>1770.85169541681</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>37918</v>
       </c>
       <c r="B96">
-        <v>1760.001912770546</v>
+        <v>1801.825540106971</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>37925</v>
       </c>
       <c r="B97">
-        <v>1840.036961356054</v>
+        <v>1887.301252261088</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>37932</v>
       </c>
       <c r="B98">
-        <v>1997.467780144681</v>
+        <v>2049.463298261089</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>37939</v>
       </c>
       <c r="B99">
-        <v>2151.186575064719</v>
+        <v>2230.602106871365</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>37946</v>
       </c>
       <c r="B100">
-        <v>2056.393641229066</v>
+        <v>2109.657125695096</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>37953</v>
       </c>
       <c r="B101">
-        <v>2026.138959371737</v>
+        <v>2083.846551834724</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>37960</v>
       </c>
       <c r="B102">
-        <v>2147.58336671674</v>
+        <v>2212.189697757789</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>37967</v>
       </c>
       <c r="B103">
-        <v>2155.786239998503</v>
+        <v>2211.877312257218</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>37974</v>
       </c>
       <c r="B104">
-        <v>2138.536576778247</v>
+        <v>2187.723953139227</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>37981</v>
       </c>
       <c r="B105">
-        <v>2224.244209486869</v>
+        <v>2276.537084600145</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>37988</v>
       </c>
       <c r="B106">
-        <v>2307.837255884021</v>
+        <v>2366.576677586692</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>37995</v>
       </c>
       <c r="B107">
-        <v>2473.205563523545</v>
+        <v>2535.619232599799</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>38002</v>
       </c>
       <c r="B108">
-        <v>2470.949774642462</v>
+        <v>2537.192126720709</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>38009</v>
       </c>
       <c r="B109">
-        <v>2470.949774642462</v>
+        <v>2537.192126720709</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>38016</v>
       </c>
       <c r="B110">
-        <v>2695.786743713333</v>
+        <v>2801.295110746115</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>38023</v>
       </c>
       <c r="B111">
-        <v>2852.542259021374</v>
+        <v>2999.882088991239</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>38030</v>
       </c>
       <c r="B112">
-        <v>3009.561077307018</v>
+        <v>3173.946092023425</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>38037</v>
       </c>
       <c r="B113">
-        <v>3196.843167484039</v>
+        <v>3375.663435679947</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>38044</v>
       </c>
       <c r="B114">
-        <v>3268.462968510477</v>
+        <v>3449.193609011581</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>38051</v>
       </c>
       <c r="B115">
-        <v>3413.664263233994</v>
+        <v>3596.866619161131</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>38058</v>
       </c>
       <c r="B116">
-        <v>3489.801024055322</v>
+        <v>3670.490002651738</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>38065</v>
       </c>
       <c r="B117">
-        <v>3483.484672940373</v>
+        <v>3659.683496148761</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>38072</v>
       </c>
       <c r="B118">
-        <v>2981.170103001285</v>
+        <v>3127.507347293433</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>38079</v>
       </c>
       <c r="B119">
-        <v>3118.263772879403</v>
+        <v>3264.555477481066</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>38086</v>
       </c>
       <c r="B120">
-        <v>3057.334325775123</v>
+        <v>3201.003869532677</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>38093</v>
       </c>
       <c r="B121">
-        <v>3093.453703633264</v>
+        <v>3240.54362389357</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>38100</v>
       </c>
       <c r="B122">
-        <v>3003.293516842979</v>
+        <v>3154.444616513861</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>38107</v>
       </c>
       <c r="B123">
-        <v>2746.639905883856</v>
+        <v>2890.655897154201</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>38114</v>
       </c>
       <c r="B124">
-        <v>2678.081857756044</v>
+        <v>2822.068074899079</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>38121</v>
       </c>
       <c r="B125">
-        <v>2689.117968643456</v>
+        <v>2833.165665227017</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>38128</v>
       </c>
       <c r="B126">
-        <v>2612.926545373564</v>
+        <v>2756.886509274793</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>38135</v>
       </c>
       <c r="B127">
-        <v>2600.644971985195</v>
+        <v>2744.691955122878</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>38142</v>
       </c>
       <c r="B128">
-        <v>2499.291092651983</v>
+        <v>2639.375340216782</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>38149</v>
       </c>
       <c r="B129">
-        <v>2531.706962947334</v>
+        <v>2668.133289220509</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>38156</v>
       </c>
       <c r="B130">
-        <v>2442.673718246857</v>
+        <v>2579.100044520032</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>38163</v>
       </c>
       <c r="B131">
-        <v>2441.372742925904</v>
+        <v>2577.799069199079</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>38170</v>
       </c>
       <c r="B132">
-        <v>2464.476182443254</v>
+        <v>2600.902508716429</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>38177</v>
       </c>
       <c r="B133">
-        <v>2520.869698445854</v>
+        <v>2657.296024719029</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>38184</v>
       </c>
       <c r="B134">
-        <v>2498.339009842723</v>
+        <v>2633.620900763347</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>38191</v>
       </c>
       <c r="B135">
-        <v>2492.990401714445</v>
+        <v>2626.516226223831</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>38198</v>
       </c>
       <c r="B136">
-        <v>2540.631247386663</v>
+        <v>2674.026181843692</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>38205</v>
       </c>
       <c r="B137">
-        <v>2514.239699368391</v>
+        <v>2647.765867421222</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>38212</v>
       </c>
       <c r="B138">
-        <v>2482.636644846632</v>
+        <v>2616.031922847106</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>38219</v>
       </c>
       <c r="B139">
-        <v>2402.329702338741</v>
+        <v>2535.724980339215</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>38226</v>
       </c>
       <c r="B140">
-        <v>2380.076133984929</v>
+        <v>2513.471411985403</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>38233</v>
       </c>
       <c r="B141">
-        <v>2425.820261509239</v>
+        <v>2559.215539509713</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>38240</v>
       </c>
       <c r="B142">
-        <v>2451.584919204294</v>
+        <v>2584.980197204768</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>38247</v>
       </c>
       <c r="B143">
-        <v>2436.294133953237</v>
+        <v>2569.689411953711</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>38254</v>
       </c>
       <c r="B144">
-        <v>2443.35078431718</v>
+        <v>2576.746062317653</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>38261</v>
       </c>
       <c r="B145">
-        <v>2391.777107985923</v>
+        <v>2525.172385986397</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>38268</v>
       </c>
       <c r="B146">
-        <v>2493.973080549503</v>
+        <v>2627.368358549977</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>38275</v>
       </c>
       <c r="B147">
-        <v>2446.525501351157</v>
+        <v>2579.920779351631</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>38282</v>
       </c>
       <c r="B148">
-        <v>2465.480884804639</v>
+        <v>2598.876162805112</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>38289</v>
       </c>
       <c r="B149">
-        <v>2437.55843763267</v>
+        <v>2570.953715633143</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>38296</v>
       </c>
       <c r="B150">
-        <v>2455.978995766524</v>
+        <v>2589.374273766998</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>38303</v>
       </c>
       <c r="B151">
-        <v>2372.703556118553</v>
+        <v>2506.098834119027</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>38310</v>
       </c>
       <c r="B152">
-        <v>2386.236662553788</v>
+        <v>2519.631940554262</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>38317</v>
       </c>
       <c r="B153">
-        <v>2253.368903738231</v>
+        <v>2386.764181738705</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>38324</v>
       </c>
       <c r="B154">
-        <v>2276.02606560923</v>
+        <v>2409.421343609704</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>38331</v>
       </c>
       <c r="B155">
-        <v>2322.36315607389</v>
+        <v>2455.758434074364</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>38338</v>
       </c>
       <c r="B156">
-        <v>2421.173479315386</v>
+        <v>2554.56875731586</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>38345</v>
       </c>
       <c r="B157">
-        <v>2458.38772496305</v>
+        <v>2591.783002963523</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>38352</v>
       </c>
       <c r="B158">
-        <v>2656.436595903148</v>
+        <v>2789.831873903622</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>38359</v>
       </c>
       <c r="B159">
-        <v>2513.209600530335</v>
+        <v>2646.604878530809</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>38366</v>
       </c>
       <c r="B160">
-        <v>2400.965173792951</v>
+        <v>2534.360451793425</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>38373</v>
       </c>
       <c r="B161">
-        <v>2373.808530742235</v>
+        <v>2507.203808742709</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>38380</v>
       </c>
       <c r="B162">
-        <v>2285.987213913854</v>
+        <v>2419.382491914328</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>38387</v>
       </c>
       <c r="B163">
-        <v>2398.085304684825</v>
+        <v>2531.480582685298</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>38394</v>
       </c>
       <c r="B164">
-        <v>2398.085304684825</v>
+        <v>2531.480582685298</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>38401</v>
       </c>
       <c r="B165">
-        <v>2660.495714047032</v>
+        <v>2793.959070483977</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>38408</v>
       </c>
       <c r="B166">
-        <v>2770.807141265256</v>
+        <v>2904.248054815479</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>38415</v>
       </c>
       <c r="B167">
-        <v>2875.25541318117</v>
+        <v>3008.732789892233</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>38422</v>
       </c>
       <c r="B168">
-        <v>3218.73767734137</v>
+        <v>3352.167544491626</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>38429</v>
       </c>
       <c r="B169">
-        <v>2826.428526943258</v>
+        <v>2959.828091450609</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>38436</v>
       </c>
       <c r="B170">
-        <v>3048.031170948062</v>
+        <v>3181.431950937471</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>38443</v>
       </c>
       <c r="B171">
-        <v>3045.595750748394</v>
+        <v>3179.029741319149</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>38450</v>
       </c>
       <c r="B172">
-        <v>3116.986496140471</v>
+        <v>3250.443638264099</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>38457</v>
       </c>
       <c r="B173">
-        <v>3110.492228894292</v>
+        <v>3243.927782600917</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>38464</v>
       </c>
       <c r="B174">
-        <v>2724.977103042747</v>
+        <v>2858.448186617284</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>38471</v>
       </c>
       <c r="B175">
-        <v>2641.801994552586</v>
+        <v>2775.273673476403</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>38478</v>
       </c>
       <c r="B176">
-        <v>2654.259783444325</v>
+        <v>2787.75902701719</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>38485</v>
       </c>
       <c r="B177">
-        <v>2670.559411804583</v>
+        <v>2804.008561524284</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>38492</v>
       </c>
       <c r="B178">
-        <v>2684.390827480943</v>
+        <v>2817.810678861791</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>38499</v>
       </c>
       <c r="B179">
-        <v>2681.93846567527</v>
+        <v>2815.43135484766</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>38506</v>
       </c>
       <c r="B180">
-        <v>2838.409211833613</v>
+        <v>2971.895881133511</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>38513</v>
       </c>
       <c r="B181">
-        <v>3070.30513571998</v>
+        <v>3203.742323121361</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>38520</v>
       </c>
       <c r="B182">
-        <v>3154.617527343493</v>
+        <v>3289.26567606861</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>38527</v>
       </c>
       <c r="B183">
-        <v>3346.742528630809</v>
+        <v>3485.84504523596</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>38534</v>
       </c>
       <c r="B184">
-        <v>3572.857431904082</v>
+        <v>3711.747843242711</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>38541</v>
       </c>
       <c r="B185">
-        <v>3741.897476564493</v>
+        <v>3883.660396426078</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>38548</v>
       </c>
       <c r="B186">
-        <v>4226.249660812517</v>
+        <v>4377.98754922108</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>38555</v>
       </c>
       <c r="B187">
-        <v>4197.708409001862</v>
+        <v>4348.093966370629</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>38562</v>
       </c>
       <c r="B188">
-        <v>4428.276323022725</v>
+        <v>4589.469168133361</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>38569</v>
       </c>
       <c r="B189">
-        <v>4410.643826451083</v>
+        <v>4564.840323490743</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>38576</v>
       </c>
       <c r="B190">
-        <v>4387.449224161041</v>
+        <v>4535.15691740408</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>38583</v>
       </c>
       <c r="B191">
-        <v>4175.733817124396</v>
+        <v>4296.680047565671</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>38590</v>
       </c>
       <c r="B192">
-        <v>4203.040025100729</v>
+        <v>4317.192951650659</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>38597</v>
       </c>
       <c r="B193">
-        <v>4103.146395519861</v>
+        <v>4223.645224471537</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38604</v>
       </c>
       <c r="B194">
-        <v>4197.933557128786</v>
+        <v>4320.045391776137</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>38611</v>
       </c>
       <c r="B195">
-        <v>4157.267643137509</v>
+        <v>4275.28658566361</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>38618</v>
       </c>
       <c r="B196">
-        <v>4207.262988164541</v>
+        <v>4325.509963731051</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>38625</v>
       </c>
       <c r="B197">
-        <v>4285.623362887167</v>
+        <v>4414.821442689167</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>38632</v>
       </c>
       <c r="B198">
-        <v>4399.61098686757</v>
+        <v>4526.631421399837</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>38639</v>
       </c>
       <c r="B199">
-        <v>4414.504337120567</v>
+        <v>4541.311440137499</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>38646</v>
       </c>
       <c r="B200">
-        <v>4507.9637477023</v>
+        <v>4636.138204588806</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>38653</v>
       </c>
       <c r="B201">
-        <v>4387.187848883925</v>
+        <v>4512.69348264912</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>38660</v>
       </c>
       <c r="B202">
-        <v>4470.667769602661</v>
+        <v>4596.935408355049</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>38667</v>
       </c>
       <c r="B203">
-        <v>4479.009519511504</v>
+        <v>4607.359241415035</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>38674</v>
       </c>
       <c r="B204">
-        <v>4549.520041177667</v>
+        <v>4675.990032278846</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>38681</v>
       </c>
       <c r="B205">
-        <v>4603.143516526776</v>
+        <v>4724.000639866351</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>38688</v>
       </c>
       <c r="B206">
-        <v>4707.741611135164</v>
+        <v>4830.012761624061</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>38695</v>
       </c>
       <c r="B207">
-        <v>4942.547940992849</v>
+        <v>5065.56359125637</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>38702</v>
       </c>
       <c r="B208">
-        <v>5257.127756882252</v>
+        <v>5389.39621356122</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>38709</v>
       </c>
       <c r="B209">
-        <v>5567.706384976143</v>
+        <v>5730.781850229612</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>38716</v>
       </c>
       <c r="B210">
-        <v>5801.813099810955</v>
+        <v>5968.299139305394</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>38723</v>
       </c>
       <c r="B211">
-        <v>6258.094896069771</v>
+        <v>6440.95148703989</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>38730</v>
       </c>
       <c r="B212">
-        <v>6002.972811693654</v>
+        <v>6171.401798372364</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>38737</v>
       </c>
       <c r="B213">
-        <v>5497.809930031875</v>
+        <v>5653.595314169193</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>38744</v>
       </c>
       <c r="B214">
-        <v>5498.563746851974</v>
+        <v>5655.140820918892</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>38751</v>
       </c>
       <c r="B215">
-        <v>5648.832587329796</v>
+        <v>5818.506626296105</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>38758</v>
       </c>
       <c r="B216">
-        <v>5551.47699102864</v>
+        <v>5711.565403857006</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>38765</v>
       </c>
       <c r="B217">
-        <v>5736.893698119373</v>
+        <v>5897.504670884039</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>38772</v>
       </c>
       <c r="B218">
-        <v>5375.296615381564</v>
+        <v>5506.598994990737</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>38779</v>
       </c>
       <c r="B219">
-        <v>5442.623119563784</v>
+        <v>5574.008842198355</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>38786</v>
       </c>
       <c r="B220">
-        <v>5456.809498933053</v>
+        <v>5594.587963614167</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2151,7 +2151,7 @@
         <v>38793</v>
       </c>
       <c r="B221">
-        <v>5667.930916436706</v>
+        <v>5822.706063631419</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>38800</v>
       </c>
       <c r="B222">
-        <v>5429.13207051693</v>
+        <v>5565.047694766681</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>38807</v>
       </c>
       <c r="B223">
-        <v>5738.044844804796</v>
+        <v>5883.426277319109</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>38814</v>
       </c>
       <c r="B224">
-        <v>5901.445577381835</v>
+        <v>6059.060834498985</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>38821</v>
       </c>
       <c r="B225">
-        <v>6363.127796307129</v>
+        <v>6584.215752535186</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>38828</v>
       </c>
       <c r="B226">
-        <v>6551.934169194332</v>
+        <v>6795.164031894508</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>38835</v>
       </c>
       <c r="B227">
-        <v>6727.643711720999</v>
+        <v>7004.723451974571</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>38842</v>
       </c>
       <c r="B228">
-        <v>7142.985699554658</v>
+        <v>7437.61751324233</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>38849</v>
       </c>
       <c r="B229">
-        <v>7370.199206053359</v>
+        <v>7666.776148637973</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>38856</v>
       </c>
       <c r="B230">
-        <v>7398.152560280936</v>
+        <v>7690.923980158839</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>38863</v>
       </c>
       <c r="B231">
-        <v>7349.976915282952</v>
+        <v>7645.828037724863</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>38870</v>
       </c>
       <c r="B232">
-        <v>7246.969019672899</v>
+        <v>7535.535175315839</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>38877</v>
       </c>
       <c r="B233">
-        <v>6692.055393217019</v>
+        <v>6961.782363134964</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>38884</v>
       </c>
       <c r="B234">
-        <v>6642.664042596609</v>
+        <v>6911.928668261759</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>38891</v>
       </c>
       <c r="B235">
-        <v>6406.209196524458</v>
+        <v>6672.43580888681</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>38898</v>
       </c>
       <c r="B236">
-        <v>6615.458229457712</v>
+        <v>6884.4026291666</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>38905</v>
       </c>
       <c r="B237">
-        <v>6587.03177229084</v>
+        <v>6853.988606968624</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>38912</v>
       </c>
       <c r="B238">
-        <v>6519.7319765881</v>
+        <v>6780.820950726547</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>38919</v>
       </c>
       <c r="B239">
-        <v>6521.746629847024</v>
+        <v>6782.819468908243</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>38926</v>
       </c>
       <c r="B240">
-        <v>6585.942049282401</v>
+        <v>6847.01488834362</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>38933</v>
       </c>
       <c r="B241">
-        <v>6612.70067026252</v>
+        <v>6873.773509323738</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>38940</v>
       </c>
       <c r="B242">
-        <v>6565.035542964953</v>
+        <v>6826.108382026171</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>38947</v>
       </c>
       <c r="B243">
-        <v>6676.194649778769</v>
+        <v>6937.267488839986</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>38954</v>
       </c>
       <c r="B244">
-        <v>6547.626234934598</v>
+        <v>6806.705688381326</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>38961</v>
       </c>
       <c r="B245">
-        <v>6518.640261067596</v>
+        <v>6775.48292131472</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>38968</v>
       </c>
       <c r="B246">
-        <v>6566.872934431745</v>
+        <v>6822.803593710363</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>38975</v>
       </c>
       <c r="B247">
-        <v>6507.751498019879</v>
+        <v>6764.243298372941</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>38982</v>
       </c>
       <c r="B248">
-        <v>6769.971508279166</v>
+        <v>7047.456916057932</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>38989</v>
       </c>
       <c r="B249">
-        <v>6836.913046175594</v>
+        <v>7108.310144255174</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>38996</v>
       </c>
       <c r="B250">
-        <v>7052.220533260086</v>
+        <v>7336.052589671515</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>39003</v>
       </c>
       <c r="B251">
-        <v>7170.181530434336</v>
+        <v>7472.320383209582</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>39010</v>
       </c>
       <c r="B252">
-        <v>7438.595011714911</v>
+        <v>7779.531039630398</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>39017</v>
       </c>
       <c r="B253">
-        <v>7491.369045647423</v>
+        <v>7835.863068637807</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>39024</v>
       </c>
       <c r="B254">
-        <v>7633.105107800933</v>
+        <v>8015.112313241229</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>39031</v>
       </c>
       <c r="B255">
-        <v>7796.740351370954</v>
+        <v>8174.795291341608</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>39038</v>
       </c>
       <c r="B256">
-        <v>8104.689081851182</v>
+        <v>8535.169683550444</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>39045</v>
       </c>
       <c r="B257">
-        <v>8324.52265090692</v>
+        <v>8796.613744819606</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>39052</v>
       </c>
       <c r="B258">
-        <v>8701.521334558392</v>
+        <v>9182.007820457164</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>39059</v>
       </c>
       <c r="B259">
-        <v>8741.080149629874</v>
+        <v>9220.442941447383</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>39066</v>
       </c>
       <c r="B260">
-        <v>8721.312153190534</v>
+        <v>9188.460493367646</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>39073</v>
       </c>
       <c r="B261">
-        <v>8922.75644615346</v>
+        <v>9410.406846689299</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>39080</v>
       </c>
       <c r="B262">
-        <v>9318.932239193684</v>
+        <v>9873.339310698164</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>39087</v>
       </c>
       <c r="B263">
-        <v>9263.314482163512</v>
+        <v>9807.216490566077</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>39094</v>
       </c>
       <c r="B264">
-        <v>9182.206796664281</v>
+        <v>9702.489361682377</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>39101</v>
       </c>
       <c r="B265">
-        <v>9407.563682174326</v>
+        <v>9966.096016410333</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>39108</v>
       </c>
       <c r="B266">
-        <v>9517.220284831788</v>
+        <v>10079.80811151851</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>39115</v>
       </c>
       <c r="B267">
-        <v>9345.496797196018</v>
+        <v>9890.046532879014</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>39122</v>
       </c>
       <c r="B268">
-        <v>9537.45887633956</v>
+        <v>10104.15356606833</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>39129</v>
       </c>
       <c r="B269">
-        <v>9556.376511133691</v>
+        <v>10125.19196698137</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>39136</v>
       </c>
       <c r="B270">
-        <v>9556.376511133691</v>
+        <v>10125.19196698137</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>39143</v>
       </c>
       <c r="B271">
-        <v>9605.362659579099</v>
+        <v>10182.50254201162</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>39150</v>
       </c>
       <c r="B272">
-        <v>9600.462199892008</v>
+        <v>10164.7897741479</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>39157</v>
       </c>
       <c r="B273">
-        <v>9807.007328575835</v>
+        <v>10392.26071211537</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>39164</v>
       </c>
       <c r="B274">
-        <v>10039.56076854734</v>
+        <v>10641.29781400069</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>39171</v>
       </c>
       <c r="B275">
-        <v>10296.79872753457</v>
+        <v>10910.84385501636</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>39178</v>
       </c>
       <c r="B276">
-        <v>10439.55983582355</v>
+        <v>11068.454114121</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>39185</v>
       </c>
       <c r="B277">
-        <v>10429.45790176456</v>
+        <v>11078.8393049512</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>39192</v>
       </c>
       <c r="B278">
-        <v>10504.67616505517</v>
+        <v>11145.93722319377</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>39199</v>
       </c>
       <c r="B279">
-        <v>10557.6876060899</v>
+        <v>11194.83769547682</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>39206</v>
       </c>
       <c r="B280">
-        <v>10313.53634053539</v>
+        <v>10932.65290492585</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>39213</v>
       </c>
       <c r="B281">
-        <v>10410.75933365599</v>
+        <v>11037.50559073394</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>39220</v>
       </c>
       <c r="B282">
-        <v>10365.08320960374</v>
+        <v>10982.28304838916</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>39227</v>
       </c>
       <c r="B283">
-        <v>10391.61710430352</v>
+        <v>11015.84405948841</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>39234</v>
       </c>
       <c r="B284">
-        <v>10323.71229055144</v>
+        <v>10950.20652510595</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>39241</v>
       </c>
       <c r="B285">
-        <v>10475.36887980495</v>
+        <v>11099.84540986595</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>39248</v>
       </c>
       <c r="B286">
-        <v>10574.78160627985</v>
+        <v>11237.82593403317</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2679,7 +2679,7 @@
         <v>39255</v>
       </c>
       <c r="B287">
-        <v>10801.90132684586</v>
+        <v>11486.88997032845</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>39262</v>
       </c>
       <c r="B288">
-        <v>11097.64704706091</v>
+        <v>11822.96091544458</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>39269</v>
       </c>
       <c r="B289">
-        <v>11562.53484257662</v>
+        <v>12361.2429544222</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>39276</v>
       </c>
       <c r="B290">
-        <v>11837.36780723706</v>
+        <v>12665.38818871392</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>39283</v>
       </c>
       <c r="B291">
-        <v>12171.51889559774</v>
+        <v>13020.49537666519</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>39290</v>
       </c>
       <c r="B292">
-        <v>12364.54909527727</v>
+        <v>13227.92410275305</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>39297</v>
       </c>
       <c r="B293">
-        <v>12163.25339706498</v>
+        <v>13038.68473414885</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>39304</v>
       </c>
       <c r="B294">
-        <v>12246.82919998731</v>
+        <v>13122.26053707118</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>39311</v>
       </c>
       <c r="B295">
-        <v>11714.83104021299</v>
+        <v>12570.27369072908</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>39318</v>
       </c>
       <c r="B296">
-        <v>11707.7192849168</v>
+        <v>12563.16193543289</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>39325</v>
       </c>
       <c r="B297">
-        <v>11830.2126115798</v>
+        <v>12691.30966847951</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2767,7 +2767,7 @@
         <v>39332</v>
       </c>
       <c r="B298">
-        <v>11848.54724064574</v>
+        <v>12708.66957929994</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>39339</v>
       </c>
       <c r="B299">
-        <v>11839.11206852488</v>
+        <v>12697.89897905653</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>39346</v>
       </c>
       <c r="B300">
-        <v>11872.57543941722</v>
+        <v>12733.31984435604</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2791,7 +2791,7 @@
         <v>39353</v>
       </c>
       <c r="B301">
-        <v>11967.96822777032</v>
+        <v>12828.71263270914</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>39360</v>
       </c>
       <c r="B302">
-        <v>11987.98414672133</v>
+        <v>12848.47166235609</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>39367</v>
       </c>
       <c r="B303">
-        <v>12037.99566197462</v>
+        <v>12898.48317760937</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>39374</v>
       </c>
       <c r="B304">
-        <v>11936.22104706917</v>
+        <v>12795.27217419503</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>39381</v>
       </c>
       <c r="B305">
-        <v>11933.00435284194</v>
+        <v>12792.39331780564</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>39388</v>
       </c>
       <c r="B306">
-        <v>11825.67193247121</v>
+        <v>12682.27398520939</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>39395</v>
       </c>
       <c r="B307">
-        <v>11997.01564793048</v>
+        <v>12853.60749011094</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>39402</v>
       </c>
       <c r="B308">
-        <v>11944.62563513763</v>
+        <v>12801.22668853066</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>39409</v>
       </c>
       <c r="B309">
-        <v>11975.42571479426</v>
+        <v>12832.02093470389</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2863,7 +2863,7 @@
         <v>39416</v>
       </c>
       <c r="B310">
-        <v>11950.43038116848</v>
+        <v>12807.03627681092</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>39423</v>
       </c>
       <c r="B311">
-        <v>11848.92933357887</v>
+        <v>12705.52796325548</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>39430</v>
       </c>
       <c r="B312">
-        <v>12130.18341823313</v>
+        <v>12986.78204790974</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2887,7 +2887,7 @@
         <v>39437</v>
       </c>
       <c r="B313">
-        <v>12464.04881793092</v>
+        <v>13320.64744760754</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2895,7 +2895,7 @@
         <v>39444</v>
       </c>
       <c r="B314">
-        <v>12008.5858838186</v>
+        <v>12865.18451349521</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>39451</v>
       </c>
       <c r="B315">
-        <v>12144.74294452703</v>
+        <v>13001.34157420365</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>39458</v>
       </c>
       <c r="B316">
-        <v>12336.17257836657</v>
+        <v>13192.77190405781</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>39465</v>
       </c>
       <c r="B317">
-        <v>12454.46312719148</v>
+        <v>13311.05772060905</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>39472</v>
       </c>
       <c r="B318">
-        <v>12832.56098321537</v>
+        <v>13689.16023474698</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>39479</v>
       </c>
       <c r="B319">
-        <v>13025.91450403488</v>
+        <v>13882.51375556649</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>39486</v>
       </c>
       <c r="B320">
-        <v>13025.91450403488</v>
+        <v>13882.51375556649</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>39493</v>
       </c>
       <c r="B321">
-        <v>12880.13499729556</v>
+        <v>13736.73424882716</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>39500</v>
       </c>
       <c r="B322">
-        <v>12595.27767434192</v>
+        <v>13451.87692587353</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>39507</v>
       </c>
       <c r="B323">
-        <v>12558.64014886423</v>
+        <v>13415.23940039584</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>39514</v>
       </c>
       <c r="B324">
-        <v>12525.30667033702</v>
+        <v>13380.60293368238</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>39521</v>
       </c>
       <c r="B325">
-        <v>12333.99855804958</v>
+        <v>13186.4159030109</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>39528</v>
       </c>
       <c r="B326">
-        <v>12356.86863625754</v>
+        <v>13217.88265559962</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>39535</v>
       </c>
       <c r="B327">
-        <v>12567.3081920954</v>
+        <v>13432.74677264658</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>39542</v>
       </c>
       <c r="B328">
-        <v>12443.31923825873</v>
+        <v>13298.16108228802</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>39549</v>
       </c>
       <c r="B329">
-        <v>12736.32327414154</v>
+        <v>13600.01739513301</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>39556</v>
       </c>
       <c r="B330">
-        <v>13110.53223269705</v>
+        <v>13989.33873006047</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>39563</v>
       </c>
       <c r="B331">
-        <v>13045.05312996095</v>
+        <v>13904.58372986867</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>39570</v>
       </c>
       <c r="B332">
-        <v>12818.56856662126</v>
+        <v>13681.94129938551</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>39577</v>
       </c>
       <c r="B333">
-        <v>12945.27683616655</v>
+        <v>13807.53643513548</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>39584</v>
       </c>
       <c r="B334">
-        <v>13236.24465401958</v>
+        <v>14098.28808384008</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>39591</v>
       </c>
       <c r="B335">
-        <v>13108.07827084938</v>
+        <v>13968.83453339829</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>39598</v>
       </c>
       <c r="B336">
-        <v>12289.82028134012</v>
+        <v>13128.67868193195</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>39605</v>
       </c>
       <c r="B337">
-        <v>12490.82754376451</v>
+        <v>13331.39162130757</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>39612</v>
       </c>
       <c r="B338">
-        <v>11998.94265820831</v>
+        <v>12815.35413922102</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>39619</v>
       </c>
       <c r="B339">
-        <v>12017.62722104838</v>
+        <v>12836.72404574512</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>39626</v>
       </c>
       <c r="B340">
-        <v>12095.26167052238</v>
+        <v>12908.58254020995</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>39633</v>
       </c>
       <c r="B341">
-        <v>12167.31990202807</v>
+        <v>12980.62286512923</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>39640</v>
       </c>
       <c r="B342">
-        <v>12183.1084425954</v>
+        <v>12996.42777170899</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>39647</v>
       </c>
       <c r="B343">
-        <v>12317.53160277757</v>
+        <v>13130.83329256723</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>39654</v>
       </c>
       <c r="B344">
-        <v>12044.65750555759</v>
+        <v>12857.98146034107</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>39661</v>
       </c>
       <c r="B345">
-        <v>12127.86181143797</v>
+        <v>12941.18803141061</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>39668</v>
       </c>
       <c r="B346">
-        <v>11939.3312086849</v>
+        <v>12752.64041600304</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>39675</v>
       </c>
       <c r="B347">
-        <v>11887.53263557421</v>
+        <v>12700.84184289235</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>39682</v>
       </c>
       <c r="B348">
-        <v>11999.88368596992</v>
+        <v>12813.23905696789</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>39689</v>
       </c>
       <c r="B349">
-        <v>11794.20350886586</v>
+        <v>12607.55887986383</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>39696</v>
       </c>
       <c r="B350">
-        <v>12132.54253074482</v>
+        <v>12945.7793325382</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>39703</v>
       </c>
       <c r="B351">
-        <v>12251.56139329159</v>
+        <v>13064.72020726945</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>39710</v>
       </c>
       <c r="B352">
-        <v>12851.85474236801</v>
+        <v>13665.01355634586</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>39717</v>
       </c>
       <c r="B353">
-        <v>12838.50025565413</v>
+        <v>13651.65906963199</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>39724</v>
       </c>
       <c r="B354">
-        <v>13031.33557366245</v>
+        <v>13844.4943876403</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>39731</v>
       </c>
       <c r="B355">
-        <v>13725.02424116592</v>
+        <v>14538.17147159681</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>39738</v>
       </c>
       <c r="B356">
-        <v>13793.15826141297</v>
+        <v>14606.30549184386</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>39745</v>
       </c>
       <c r="B357">
-        <v>14009.51787778144</v>
+        <v>14822.66510821232</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>39752</v>
       </c>
       <c r="B358">
-        <v>14085.45546365755</v>
+        <v>14898.60269408843</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3255,7 +3255,7 @@
         <v>39759</v>
       </c>
       <c r="B359">
-        <v>14083.28882202266</v>
+        <v>14896.43605245354</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>39766</v>
       </c>
       <c r="B360">
-        <v>14322.69942524611</v>
+        <v>15135.86754368835</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3271,7 +3271,7 @@
         <v>39773</v>
       </c>
       <c r="B361">
-        <v>14445.88214551974</v>
+        <v>15259.03816798193</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>39780</v>
       </c>
       <c r="B362">
-        <v>14260.30813915112</v>
+        <v>15073.4641616133</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3287,7 +3287,7 @@
         <v>39787</v>
       </c>
       <c r="B363">
-        <v>14410.16421090918</v>
+        <v>15223.32023337136</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>39794</v>
       </c>
       <c r="B364">
-        <v>13997.72891251878</v>
+        <v>14810.83791412597</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>39801</v>
       </c>
       <c r="B365">
-        <v>14047.39735495076</v>
+        <v>14860.5173717148</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>39808</v>
       </c>
       <c r="B366">
-        <v>13824.17507462574</v>
+        <v>14637.29509138979</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>39815</v>
       </c>
       <c r="B367">
-        <v>13835.25368595136</v>
+        <v>14652.956057248</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>39822</v>
       </c>
       <c r="B368">
-        <v>13794.87823369409</v>
+        <v>14612.30644460691</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>39829</v>
       </c>
       <c r="B369">
-        <v>13654.1308355272</v>
+        <v>14470.25320451561</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>39836</v>
       </c>
       <c r="B370">
-        <v>13530.28493694497</v>
+        <v>14347.52151206152</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>39843</v>
       </c>
       <c r="B371">
-        <v>13530.28493694497</v>
+        <v>14347.52151206152</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>39850</v>
       </c>
       <c r="B372">
-        <v>13348.81410996141</v>
+        <v>14169.60386550825</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>39857</v>
       </c>
       <c r="B373">
-        <v>13539.36464934397</v>
+        <v>14357.69429850783</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>39864</v>
       </c>
       <c r="B374">
-        <v>13257.58604575314</v>
+        <v>14072.57554495108</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>39871</v>
       </c>
       <c r="B375">
-        <v>13720.50667009353</v>
+        <v>14541.56104940431</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>39878</v>
       </c>
       <c r="B376">
-        <v>14170.26370318579</v>
+        <v>14994.11063568806</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3399,7 +3399,7 @@
         <v>39885</v>
       </c>
       <c r="B377">
-        <v>14780.01945829028</v>
+        <v>15613.56884874856</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>39892</v>
       </c>
       <c r="B378">
-        <v>15113.8985814692</v>
+        <v>15952.75457570107</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>39899</v>
       </c>
       <c r="B379">
-        <v>16847.4549675383</v>
+        <v>17684.8551946929</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>39906</v>
       </c>
       <c r="B380">
-        <v>17377.3077828951</v>
+        <v>18219.82164641333</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>39913</v>
       </c>
       <c r="B381">
-        <v>18799.96488456276</v>
+        <v>19653.07334267558</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>39920</v>
       </c>
       <c r="B382">
-        <v>18354.64849183571</v>
+        <v>19206.4373018547</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3447,7 +3447,7 @@
         <v>39927</v>
       </c>
       <c r="B383">
-        <v>19171.52125029626</v>
+        <v>20038.21843079568</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>39934</v>
       </c>
       <c r="B384">
-        <v>18771.77084382574</v>
+        <v>19633.76974846309</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3463,7 +3463,7 @@
         <v>39941</v>
       </c>
       <c r="B385">
-        <v>20303.18789688289</v>
+        <v>21166.72456723711</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>39948</v>
       </c>
       <c r="B386">
-        <v>20416.67571450679</v>
+        <v>21280.7023625893</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>39955</v>
       </c>
       <c r="B387">
-        <v>21604.32622237095</v>
+        <v>22466.53549456693</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>39962</v>
       </c>
       <c r="B388">
-        <v>21893.85921473612</v>
+        <v>22754.21747113075</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>39969</v>
       </c>
       <c r="B389">
-        <v>21549.03837273581</v>
+        <v>22401.07096215712</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>39976</v>
       </c>
       <c r="B390">
-        <v>20517.53032051004</v>
+        <v>21369.56290993134</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>39983</v>
       </c>
       <c r="B391">
-        <v>19871.7697966125</v>
+        <v>20723.8023860338</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>39990</v>
       </c>
       <c r="B392">
-        <v>20401.17078668672</v>
+        <v>21253.20337610802</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>39997</v>
       </c>
       <c r="B393">
-        <v>20690.63214541174</v>
+        <v>21542.66473483304</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>40004</v>
       </c>
       <c r="B394">
-        <v>21216.42106021738</v>
+        <v>22068.45364963869</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>40011</v>
       </c>
       <c r="B395">
-        <v>21491.55268565807</v>
+        <v>22343.58527507937</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>40018</v>
       </c>
       <c r="B396">
-        <v>21912.06732322653</v>
+        <v>22764.09991264783</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>40025</v>
       </c>
       <c r="B397">
-        <v>22675.94169071106</v>
+        <v>23527.97428013236</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>40032</v>
       </c>
       <c r="B398">
-        <v>22193.05272748229</v>
+        <v>23045.08531690359</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>40039</v>
       </c>
       <c r="B399">
-        <v>23057.1321461929</v>
+        <v>23909.1647356142</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>40046</v>
       </c>
       <c r="B400">
-        <v>22087.95681230232</v>
+        <v>22939.98940172362</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>40053</v>
       </c>
       <c r="B401">
-        <v>22030.96557648724</v>
+        <v>22882.99816590854</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>40060</v>
       </c>
       <c r="B402">
-        <v>22886.59670568105</v>
+        <v>23738.62929510235</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>40067</v>
       </c>
       <c r="B403">
-        <v>23020.91377930235</v>
+        <v>23872.94636872365</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>40074</v>
       </c>
       <c r="B404">
-        <v>23908.38975968347</v>
+        <v>24765.56749499051</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3623,7 +3623,7 @@
         <v>40081</v>
       </c>
       <c r="B405">
-        <v>23991.86177506066</v>
+        <v>24839.95397931268</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>40088</v>
       </c>
       <c r="B406">
-        <v>24121.60031930125</v>
+        <v>24966.25729686484</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>40095</v>
       </c>
       <c r="B407">
-        <v>24741.69171404774</v>
+        <v>25621.778650057</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>40102</v>
       </c>
       <c r="B408">
-        <v>25601.38998031723</v>
+        <v>26525.42272281978</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>40109</v>
       </c>
       <c r="B409">
-        <v>25956.1289849979</v>
+        <v>26893.19429795162</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>40116</v>
       </c>
       <c r="B410">
-        <v>25193.64252166579</v>
+        <v>26113.28888126789</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>40123</v>
       </c>
       <c r="B411">
-        <v>25641.70079305871</v>
+        <v>26563.29263747146</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>40130</v>
       </c>
       <c r="B412">
-        <v>25916.78375324042</v>
+        <v>26839.59780805095</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>40137</v>
       </c>
       <c r="B413">
-        <v>26135.87591491562</v>
+        <v>27087.49740128866</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>40144</v>
       </c>
       <c r="B414">
-        <v>25879.22464410253</v>
+        <v>26820.37082010743</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>40151</v>
       </c>
       <c r="B415">
-        <v>26054.52846591811</v>
+        <v>26995.67464192301</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>40158</v>
       </c>
       <c r="B416">
-        <v>26522.62321976378</v>
+        <v>27468.92221811333</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>40165</v>
       </c>
       <c r="B417">
-        <v>26636.15400412184</v>
+        <v>27585.35177604076</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>40172</v>
       </c>
       <c r="B418">
-        <v>26862.34828218299</v>
+        <v>27827.17738867252</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>40179</v>
       </c>
       <c r="B419">
-        <v>27333.02824806346</v>
+        <v>28303.83372339754</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>40186</v>
       </c>
       <c r="B420">
-        <v>27159.02812680564</v>
+        <v>28122.85704602327</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>40193</v>
       </c>
       <c r="B421">
-        <v>27342.15347419515</v>
+        <v>28311.80856163246</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>40200</v>
       </c>
       <c r="B422">
-        <v>26855.76673095576</v>
+        <v>27809.46695034761</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>40207</v>
       </c>
       <c r="B423">
-        <v>26580.93530172589</v>
+        <v>27533.11039049235</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>40214</v>
       </c>
       <c r="B424">
-        <v>26461.31502238584</v>
+        <v>27413.49293045981</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>40221</v>
       </c>
       <c r="B425">
-        <v>26458.19545446495</v>
+        <v>27410.37044922741</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>40228</v>
       </c>
       <c r="B426">
-        <v>26458.19545446495</v>
+        <v>27410.37044922741</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>40235</v>
       </c>
       <c r="B427">
-        <v>26557.09960547679</v>
+        <v>27509.26445466582</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>40242</v>
       </c>
       <c r="B428">
-        <v>26390.03274252557</v>
+        <v>27342.20689222999</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>40249</v>
       </c>
       <c r="B429">
-        <v>26356.97198838662</v>
+        <v>27310.27606333969</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>40256</v>
       </c>
       <c r="B430">
-        <v>26455.54641909778</v>
+        <v>27409.12263057485</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>40263</v>
       </c>
       <c r="B431">
-        <v>26530.42108667088</v>
+        <v>27504.63015767418</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>40270</v>
       </c>
       <c r="B432">
-        <v>26649.98045399669</v>
+        <v>27621.86760389314</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>40277</v>
       </c>
       <c r="B433">
-        <v>26720.41281788659</v>
+        <v>27693.22603381392</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>40284</v>
       </c>
       <c r="B434">
-        <v>26854.33834729042</v>
+        <v>27841.66198734101</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>40291</v>
       </c>
       <c r="B435">
-        <v>26889.3499914761</v>
+        <v>27869.80186633638</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>40298</v>
       </c>
       <c r="B436">
-        <v>26902.7278773913</v>
+        <v>27882.87111027627</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>40305</v>
       </c>
       <c r="B437">
-        <v>26950.3352058675</v>
+        <v>27931.95707141007</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3887,7 +3887,7 @@
         <v>40312</v>
       </c>
       <c r="B438">
-        <v>26959.36574169533</v>
+        <v>27946.53107588851</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>40319</v>
       </c>
       <c r="B439">
-        <v>26941.41504331988</v>
+        <v>27893.21489510798</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3903,7 +3903,7 @@
         <v>40326</v>
       </c>
       <c r="B440">
-        <v>26823.48257584821</v>
+        <v>27775.6234892245</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>40333</v>
       </c>
       <c r="B441">
-        <v>26829.95445927388</v>
+        <v>27814.71119629457</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>40340</v>
       </c>
       <c r="B442">
-        <v>26926.40198856127</v>
+        <v>27908.95328931383</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>40347</v>
       </c>
       <c r="B443">
-        <v>26872.64063059141</v>
+        <v>27860.98412346675</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>40354</v>
       </c>
       <c r="B444">
-        <v>26904.25410814999</v>
+        <v>27899.69151887336</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>40361</v>
       </c>
       <c r="B445">
-        <v>26945.96792464858</v>
+        <v>27937.94420336871</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3951,7 +3951,7 @@
         <v>40368</v>
       </c>
       <c r="B446">
-        <v>26741.06056874753</v>
+        <v>27734.55570416985</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>40375</v>
       </c>
       <c r="B447">
-        <v>26788.1028065051</v>
+        <v>27780.95284396162</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>40382</v>
       </c>
       <c r="B448">
-        <v>26938.95729920059</v>
+        <v>27941.75261145802</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>40389</v>
       </c>
       <c r="B449">
-        <v>27080.61482199279</v>
+        <v>28084.12255199963</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>40396</v>
       </c>
       <c r="B450">
-        <v>27352.18999693175</v>
+        <v>28371.05570830043</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>40403</v>
       </c>
       <c r="B451">
-        <v>27405.79587272094</v>
+        <v>28419.97220137576</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>40410</v>
       </c>
       <c r="B452">
-        <v>27465.98020500466</v>
+        <v>28505.87289878674</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>40417</v>
       </c>
       <c r="B453">
-        <v>27426.38180210685</v>
+        <v>28459.09463094392</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4015,7 +4015,7 @@
         <v>40424</v>
       </c>
       <c r="B454">
-        <v>27408.99052276828</v>
+        <v>28460.47642405827</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>40431</v>
       </c>
       <c r="B455">
-        <v>27369.1474983354</v>
+        <v>28419.81740486527</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>40438</v>
       </c>
       <c r="B456">
-        <v>27460.45869215447</v>
+        <v>28546.92999508655</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>40445</v>
       </c>
       <c r="B457">
-        <v>27544.84561619222</v>
+        <v>28644.60637570209</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>40452</v>
       </c>
       <c r="B458">
-        <v>27633.81597998055</v>
+        <v>28752.64636408284</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>40459</v>
       </c>
       <c r="B459">
-        <v>27780.14443794748</v>
+        <v>28919.42117357481</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>40466</v>
       </c>
       <c r="B460">
-        <v>27961.00918412879</v>
+        <v>29128.82325189505</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>40473</v>
       </c>
       <c r="B461">
-        <v>27822.09473016969</v>
+        <v>28974.03819284819</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>40480</v>
       </c>
       <c r="B462">
-        <v>27915.20804805479</v>
+        <v>29068.21557897957</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>40487</v>
       </c>
       <c r="B463">
-        <v>28027.12384496634</v>
+        <v>29175.79640250247</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>40494</v>
       </c>
       <c r="B464">
-        <v>28126.16188941503</v>
+        <v>29255.79045459453</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>40501</v>
       </c>
       <c r="B465">
-        <v>27985.90975691337</v>
+        <v>29107.0202247713</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>40508</v>
       </c>
       <c r="B466">
-        <v>27912.93781598201</v>
+        <v>29022.79842387656</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>40515</v>
       </c>
       <c r="B467">
-        <v>28104.76470746924</v>
+        <v>29236.97165152038</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>40522</v>
       </c>
       <c r="B468">
-        <v>28281.69284925732</v>
+        <v>29413.1941811703</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>40529</v>
       </c>
       <c r="B469">
-        <v>28375.91204310137</v>
+        <v>29509.06616837933</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>40536</v>
       </c>
       <c r="B470">
-        <v>28499.78578416107</v>
+        <v>29655.9420410755</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>40543</v>
       </c>
       <c r="B471">
-        <v>28456.40610218344</v>
+        <v>29607.92262303685</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>40550</v>
       </c>
       <c r="B472">
-        <v>28336.67125460804</v>
+        <v>29487.88140786014</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>40557</v>
       </c>
       <c r="B473">
-        <v>28401.53596236172</v>
+        <v>29559.10328587453</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>40564</v>
       </c>
       <c r="B474">
-        <v>28394.50617597673</v>
+        <v>29546.06422373377</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>40571</v>
       </c>
       <c r="B475">
-        <v>28429.73518897618</v>
+        <v>29591.05730140644</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>40578</v>
       </c>
       <c r="B476">
-        <v>28429.73518897618</v>
+        <v>29591.05730140644</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>40585</v>
       </c>
       <c r="B477">
-        <v>28324.19582497914</v>
+        <v>29450.81405116412</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>40592</v>
       </c>
       <c r="B478">
-        <v>28429.44433405422</v>
+        <v>29553.62954420716</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>40599</v>
       </c>
       <c r="B479">
-        <v>28390.93859883747</v>
+        <v>29497.30267127127</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>40606</v>
       </c>
       <c r="B480">
-        <v>28300.97722278854</v>
+        <v>29407.34129522234</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>40613</v>
       </c>
       <c r="B481">
-        <v>28273.69017286728</v>
+        <v>29384.25179280141</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>40620</v>
       </c>
       <c r="B482">
-        <v>28573.51646946264</v>
+        <v>29685.3088203764</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>40627</v>
       </c>
       <c r="B483">
-        <v>28429.07132826662</v>
+        <v>29543.78772674164</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>40634</v>
       </c>
       <c r="B484">
-        <v>28591.07188301139</v>
+        <v>29710.92034462477</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4263,7 +4263,7 @@
         <v>40641</v>
       </c>
       <c r="B485">
-        <v>28533.91391759267</v>
+        <v>29657.72063482622</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>40648</v>
       </c>
       <c r="B486">
-        <v>28672.38844751602</v>
+        <v>29787.80532601759</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>40655</v>
       </c>
       <c r="B487">
-        <v>28771.54201055802</v>
+        <v>29895.09545751361</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4287,7 +4287,7 @@
         <v>40662</v>
       </c>
       <c r="B488">
-        <v>28810.92352096014</v>
+        <v>29925.02963479532</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>40669</v>
       </c>
       <c r="B489">
-        <v>28915.41505751713</v>
+        <v>30029.72514843153</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>40676</v>
       </c>
       <c r="B490">
-        <v>28940.32313496522</v>
+        <v>30056.60673037613</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>40683</v>
       </c>
       <c r="B491">
-        <v>28844.79966481604</v>
+        <v>29956.70102501295</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>40690</v>
       </c>
       <c r="B492">
-        <v>29004.58657876376</v>
+        <v>30121.47347775943</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>40697</v>
       </c>
       <c r="B493">
-        <v>29028.79782581497</v>
+        <v>30151.94969182257</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>40704</v>
       </c>
       <c r="B494">
-        <v>28919.53947967904</v>
+        <v>30040.26790980868</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>40711</v>
       </c>
       <c r="B495">
-        <v>28819.60204342573</v>
+        <v>29935.49753957037</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>40718</v>
       </c>
       <c r="B496">
-        <v>29054.92182728999</v>
+        <v>30168.79036066035</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>40725</v>
       </c>
       <c r="B497">
-        <v>29016.51436059126</v>
+        <v>30132.41776474304</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>40732</v>
       </c>
       <c r="B498">
-        <v>29210.80446124303</v>
+        <v>30326.25923818703</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>40739</v>
       </c>
       <c r="B499">
-        <v>29697.12798020451</v>
+        <v>30817.15999027192</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>40746</v>
       </c>
       <c r="B500">
-        <v>29844.63612989271</v>
+        <v>30976.77799613025</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>40753</v>
       </c>
       <c r="B501">
-        <v>29991.36599129126</v>
+        <v>31117.22589236136</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>40760</v>
       </c>
       <c r="B502">
-        <v>30010.16468718701</v>
+        <v>31090.12731770771</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>40767</v>
       </c>
       <c r="B503">
-        <v>30369.16858322991</v>
+        <v>31448.84467491105</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>40774</v>
       </c>
       <c r="B504">
-        <v>30748.03154900672</v>
+        <v>31825.38685215739</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>40781</v>
       </c>
       <c r="B505">
-        <v>30691.76008775952</v>
+        <v>31769.1153909102</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>40788</v>
       </c>
       <c r="B506">
-        <v>30378.38472469279</v>
+        <v>31455.74002784347</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>40795</v>
       </c>
       <c r="B507">
-        <v>30477.39021654286</v>
+        <v>31554.74551969353</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>40802</v>
       </c>
       <c r="B508">
-        <v>30467.03729295844</v>
+        <v>31544.39259610912</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>40809</v>
       </c>
       <c r="B509">
-        <v>30675.09034318856</v>
+        <v>31752.44564633924</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>40816</v>
       </c>
       <c r="B510">
-        <v>30661.59572238455</v>
+        <v>31738.95102553523</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>40823</v>
       </c>
       <c r="B511">
-        <v>30744.03834342438</v>
+        <v>31821.39364657506</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>40830</v>
       </c>
       <c r="B512">
-        <v>30333.94167607063</v>
+        <v>31411.29697922131</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>40837</v>
       </c>
       <c r="B513">
-        <v>30419.35504608746</v>
+        <v>31496.71034923813</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>40844</v>
       </c>
       <c r="B514">
-        <v>30240.90073544827</v>
+        <v>31318.26653072411</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>40851</v>
       </c>
       <c r="B515">
-        <v>30256.90328290593</v>
+        <v>31334.26907818176</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>40858</v>
       </c>
       <c r="B516">
-        <v>30246.508449664</v>
+        <v>31323.87424493984</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>40865</v>
       </c>
       <c r="B517">
-        <v>30300.90055967443</v>
+        <v>31378.27422587036</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>40872</v>
       </c>
       <c r="B518">
-        <v>30705.81049489796</v>
+        <v>31783.18160690791</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>40879</v>
       </c>
       <c r="B519">
-        <v>30213.88439214854</v>
+        <v>31291.24614708932</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>40886</v>
       </c>
       <c r="B520">
-        <v>30721.55648525476</v>
+        <v>31798.91918597567</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>40893</v>
       </c>
       <c r="B521">
-        <v>30749.58624130357</v>
+        <v>31826.969670005</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>40900</v>
       </c>
       <c r="B522">
-        <v>30187.57516364288</v>
+        <v>31264.95807240978</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>40907</v>
       </c>
       <c r="B523">
-        <v>30227.820174054</v>
+        <v>31305.20003124932</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4575,7 +4575,7 @@
         <v>40914</v>
       </c>
       <c r="B524">
-        <v>30222.55685701797</v>
+        <v>31299.92626536543</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>40921</v>
       </c>
       <c r="B525">
-        <v>30104.24816676027</v>
+        <v>31181.61757510772</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>40928</v>
       </c>
       <c r="B526">
-        <v>30212.4511669645</v>
+        <v>31289.82057531195</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>40935</v>
       </c>
       <c r="B527">
-        <v>30212.4511669645</v>
+        <v>31289.82057531195</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>40942</v>
       </c>
       <c r="B528">
-        <v>31532.80698363884</v>
+        <v>32610.17639198629</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>40949</v>
       </c>
       <c r="B529">
-        <v>32286.72491830954</v>
+        <v>33364.094326657</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>40956</v>
       </c>
       <c r="B530">
-        <v>32492.717810093</v>
+        <v>33570.08721844046</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>40963</v>
       </c>
       <c r="B531">
-        <v>32800.85293735511</v>
+        <v>33878.22234570256</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4639,7 +4639,7 @@
         <v>40970</v>
       </c>
       <c r="B532">
-        <v>33304.64086929702</v>
+        <v>34382.01027764448</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>40977</v>
       </c>
       <c r="B533">
-        <v>33116.62461596914</v>
+        <v>34193.99402431658</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>40984</v>
       </c>
       <c r="B534">
-        <v>33305.22118698002</v>
+        <v>34382.59059532748</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>40991</v>
       </c>
       <c r="B535">
-        <v>33250.6791292211</v>
+        <v>34328.04853756855</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4671,7 +4671,7 @@
         <v>40998</v>
       </c>
       <c r="B536">
-        <v>32652.83072488055</v>
+        <v>33730.20013322801</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>41005</v>
       </c>
       <c r="B537">
-        <v>32261.5641432877</v>
+        <v>33338.93355163516</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>41012</v>
       </c>
       <c r="B538">
-        <v>32356.54573855583</v>
+        <v>33433.91514690329</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>41019</v>
       </c>
       <c r="B539">
-        <v>32238.47718424488</v>
+        <v>33315.84659259234</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>41026</v>
       </c>
       <c r="B540">
-        <v>32242.20189098391</v>
+        <v>33319.57129933137</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>41033</v>
       </c>
       <c r="B541">
-        <v>32277.38791136581</v>
+        <v>33354.75731971327</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>41040</v>
       </c>
       <c r="B542">
-        <v>32157.75875182232</v>
+        <v>33235.12816016977</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>41047</v>
       </c>
       <c r="B543">
-        <v>32049.47006947274</v>
+        <v>33126.8394778202</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>41054</v>
       </c>
       <c r="B544">
-        <v>32050.46143969899</v>
+        <v>33127.83084804645</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>41061</v>
       </c>
       <c r="B545">
-        <v>32034.36636520089</v>
+        <v>33111.73577354835</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>41068</v>
       </c>
       <c r="B546">
-        <v>32045.98301247431</v>
+        <v>33123.35242082176</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4759,7 +4759,7 @@
         <v>41075</v>
       </c>
       <c r="B547">
-        <v>31989.23351216017</v>
+        <v>33066.60292050763</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>41082</v>
       </c>
       <c r="B548">
-        <v>31963.86812375215</v>
+        <v>33041.23753209961</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>41089</v>
       </c>
       <c r="B549">
-        <v>31964.72424333452</v>
+        <v>33042.09365168197</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>41096</v>
       </c>
       <c r="B550">
-        <v>32051.23713038943</v>
+        <v>33128.60653873689</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>41103</v>
       </c>
       <c r="B551">
-        <v>32011.26547378979</v>
+        <v>33088.63488213724</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>41110</v>
       </c>
       <c r="B552">
-        <v>32070.33902638911</v>
+        <v>33147.70510987136</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>41117</v>
       </c>
       <c r="B553">
-        <v>32145.02585205588</v>
+        <v>33222.38264075516</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>41124</v>
       </c>
       <c r="B554">
-        <v>32226.72072963044</v>
+        <v>33304.09017303033</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>41131</v>
       </c>
       <c r="B555">
-        <v>32289.11146990293</v>
+        <v>33366.46954702969</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>41138</v>
       </c>
       <c r="B556">
-        <v>32364.07775325231</v>
+        <v>33441.4364418199</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>41145</v>
       </c>
       <c r="B557">
-        <v>32457.14471414432</v>
+        <v>33534.5035808638</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>41152</v>
       </c>
       <c r="B558">
-        <v>32406.75285930154</v>
+        <v>33484.11172602102</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>41159</v>
       </c>
       <c r="B559">
-        <v>32403.71381163738</v>
+        <v>33481.0705952578</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>41166</v>
       </c>
       <c r="B560">
-        <v>32647.12311434931</v>
+        <v>33724.47426642253</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>41173</v>
       </c>
       <c r="B561">
-        <v>32697.81433341908</v>
+        <v>33775.16548549231</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>41180</v>
       </c>
       <c r="B562">
-        <v>32695.9970566882</v>
+        <v>33773.34820876142</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>41187</v>
       </c>
       <c r="B563">
-        <v>32674.02930881333</v>
+        <v>33752.27047872772</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>41194</v>
       </c>
       <c r="B564">
-        <v>32400.26866006626</v>
+        <v>33461.33672370245</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>41201</v>
       </c>
       <c r="B565">
-        <v>32497.36607588773</v>
+        <v>33566.44329600342</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>41208</v>
       </c>
       <c r="B566">
-        <v>32160.573458117</v>
+        <v>33201.94496439293</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>41215</v>
       </c>
       <c r="B567">
-        <v>32309.09654275088</v>
+        <v>33351.98544690915</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>41222</v>
       </c>
       <c r="B568">
-        <v>32272.38142498013</v>
+        <v>33321.44787227469</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>41229</v>
       </c>
       <c r="B569">
-        <v>32307.25690984334</v>
+        <v>33355.93806556106</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>41236</v>
       </c>
       <c r="B570">
-        <v>32224.50542648518</v>
+        <v>33273.48999356228</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>41243</v>
       </c>
       <c r="B571">
-        <v>32190.09159517472</v>
+        <v>33243.50284782712</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>41250</v>
       </c>
       <c r="B572">
-        <v>32251.4871585322</v>
+        <v>33310.33571527557</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>41257</v>
       </c>
       <c r="B573">
-        <v>32332.06891177323</v>
+        <v>33395.79083217702</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>41264</v>
       </c>
       <c r="B574">
-        <v>32215.20985835541</v>
+        <v>33264.54333133352</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4983,7 +4983,7 @@
         <v>41271</v>
       </c>
       <c r="B575">
-        <v>32658.94899771166</v>
+        <v>33744.68254519143</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>41278</v>
       </c>
       <c r="B576">
-        <v>32802.92140821039</v>
+        <v>33895.47022844843</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>41285</v>
       </c>
       <c r="B577">
-        <v>33016.99929975469</v>
+        <v>34117.27445851224</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>41292</v>
       </c>
       <c r="B578">
-        <v>32681.06210045363</v>
+        <v>33754.48122353007</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>41299</v>
       </c>
       <c r="B579">
-        <v>32654.48266621161</v>
+        <v>33727.84059472601</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>41306</v>
       </c>
       <c r="B580">
-        <v>32852.49453433832</v>
+        <v>33947.66742862929</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>41313</v>
       </c>
       <c r="B581">
-        <v>32919.61410469171</v>
+        <v>34006.93231017573</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>41320</v>
       </c>
       <c r="B582">
-        <v>32919.61410469171</v>
+        <v>34006.93231017573</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>41327</v>
       </c>
       <c r="B583">
-        <v>33218.96277036868</v>
+        <v>34314.49564530919</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>41334</v>
       </c>
       <c r="B584">
-        <v>33482.48432654121</v>
+        <v>34586.49208273923</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>41341</v>
       </c>
       <c r="B585">
-        <v>33803.24114186225</v>
+        <v>34911.1304248261</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>41348</v>
       </c>
       <c r="B586">
-        <v>33704.01550025381</v>
+        <v>34804.45617261392</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>41355</v>
       </c>
       <c r="B587">
-        <v>33802.33303629027</v>
+        <v>34904.32194610735</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>41362</v>
       </c>
       <c r="B588">
-        <v>34092.43916251985</v>
+        <v>35197.86527961107</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>41369</v>
       </c>
       <c r="B589">
-        <v>34266.28181991166</v>
+        <v>35376.72956971781</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5103,7 +5103,7 @@
         <v>41376</v>
       </c>
       <c r="B590">
-        <v>33916.91773950058</v>
+        <v>35019.90840872553</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>41383</v>
       </c>
       <c r="B591">
-        <v>34302.64700435183</v>
+        <v>35418.85741166848</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>41390</v>
       </c>
       <c r="B592">
-        <v>34714.38129856761</v>
+        <v>35833.30618040894</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>41397</v>
       </c>
       <c r="B593">
-        <v>34700.30020894432</v>
+        <v>35820.82465905187</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>41404</v>
       </c>
       <c r="B594">
-        <v>34919.99414813368</v>
+        <v>36057.61611528637</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5143,7 +5143,7 @@
         <v>41411</v>
       </c>
       <c r="B595">
-        <v>35556.9409673118</v>
+        <v>36751.95350082344</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>41418</v>
       </c>
       <c r="B596">
-        <v>35411.94085115683</v>
+        <v>36577.76796551844</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>41425</v>
       </c>
       <c r="B597">
-        <v>36351.72499399942</v>
+        <v>37601.20701141572</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>41432</v>
       </c>
       <c r="B598">
-        <v>36012.03084339615</v>
+        <v>37189.65872674239</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>41439</v>
       </c>
       <c r="B599">
-        <v>35729.94670268769</v>
+        <v>36864.38464407646</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>41446</v>
       </c>
       <c r="B600">
-        <v>35978.60018727455</v>
+        <v>37119.78645774088</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>41453</v>
       </c>
       <c r="B601">
-        <v>36084.05147215357</v>
+        <v>37243.86061925897</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5199,7 +5199,7 @@
         <v>41460</v>
       </c>
       <c r="B602">
-        <v>36803.94884514664</v>
+        <v>38011.46915961889</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>41467</v>
       </c>
       <c r="B603">
-        <v>37396.69948983037</v>
+        <v>38658.65893501477</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>41474</v>
       </c>
       <c r="B604">
-        <v>37602.02993413903</v>
+        <v>38882.1974005201</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>41481</v>
       </c>
       <c r="B605">
-        <v>37784.69895500558</v>
+        <v>39100.51203110294</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>41488</v>
       </c>
       <c r="B606">
-        <v>38149.54449181299</v>
+        <v>39494.41160018799</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>41495</v>
       </c>
       <c r="B607">
-        <v>38076.37479385416</v>
+        <v>39411.56599753058</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>41502</v>
       </c>
       <c r="B608">
-        <v>37968.21354469735</v>
+        <v>39306.15667684261</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>41509</v>
       </c>
       <c r="B609">
-        <v>38038.45871434682</v>
+        <v>39392.2282842031</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>41516</v>
       </c>
       <c r="B610">
-        <v>38048.84590562626</v>
+        <v>39407.65840459833</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>41523</v>
       </c>
       <c r="B611">
-        <v>38317.11624329945</v>
+        <v>39716.48282416461</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>41530</v>
       </c>
       <c r="B612">
-        <v>38358.70282593845</v>
+        <v>39756.2060162756</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>41537</v>
       </c>
       <c r="B613">
-        <v>38456.76018176359</v>
+        <v>39851.55796767539</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>41544</v>
       </c>
       <c r="B614">
-        <v>38484.22146855848</v>
+        <v>39889.698449353</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>41551</v>
       </c>
       <c r="B615">
-        <v>39040.28245084782</v>
+        <v>40497.46586085993</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>41558</v>
       </c>
       <c r="B616">
-        <v>39041.96663169143</v>
+        <v>40494.69231957349</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>41565</v>
       </c>
       <c r="B617">
-        <v>39351.26711819735</v>
+        <v>40859.23853444005</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>41572</v>
       </c>
       <c r="B618">
-        <v>39389.76323163715</v>
+        <v>40881.69194519805</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>41579</v>
       </c>
       <c r="B619">
-        <v>39631.19578213562</v>
+        <v>41146.29886551989</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>41586</v>
       </c>
       <c r="B620">
-        <v>39270.29644636108</v>
+        <v>40756.76034571676</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5351,7 +5351,7 @@
         <v>41593</v>
       </c>
       <c r="B621">
-        <v>39187.67419746434</v>
+        <v>40663.26097822723</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>41600</v>
       </c>
       <c r="B622">
-        <v>39420.95061731311</v>
+        <v>40917.93277903103</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>41607</v>
       </c>
       <c r="B623">
-        <v>39627.1155671419</v>
+        <v>41185.69147265181</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>41614</v>
       </c>
       <c r="B624">
-        <v>39926.27643221146</v>
+        <v>41510.94761313688</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>41621</v>
       </c>
       <c r="B625">
-        <v>39772.7202961102</v>
+        <v>41331.60239954643</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>41628</v>
       </c>
       <c r="B626">
-        <v>39893.29295504628</v>
+        <v>41480.99013090721</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>41635</v>
       </c>
       <c r="B627">
-        <v>40053.26278563527</v>
+        <v>41662.3443495079</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>41642</v>
       </c>
       <c r="B628">
-        <v>40168.87643525426</v>
+        <v>41805.54825053197</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>41649</v>
       </c>
       <c r="B629">
-        <v>40329.51771106518</v>
+        <v>41992.79924892668</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>41656</v>
       </c>
       <c r="B630">
-        <v>40366.68956396848</v>
+        <v>42042.99207519654</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>41663</v>
       </c>
       <c r="B631">
-        <v>40419.4716645086</v>
+        <v>42104.84686600264</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>41670</v>
       </c>
       <c r="B632">
-        <v>40213.60246763958</v>
+        <v>41860.26857357303</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>41677</v>
       </c>
       <c r="B633">
-        <v>40511.47507089157</v>
+        <v>42227.24150601505</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>41684</v>
       </c>
       <c r="B634">
-        <v>40702.46423163971</v>
+        <v>42435.5841295221</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>41691</v>
       </c>
       <c r="B635">
-        <v>41085.69490891708</v>
+        <v>42900.65763218835</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>41698</v>
       </c>
       <c r="B636">
-        <v>41363.17912137062</v>
+        <v>43232.45560500407</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>41705</v>
       </c>
       <c r="B637">
-        <v>41273.43315333283</v>
+        <v>43115.83563476189</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>41712</v>
       </c>
       <c r="B638">
-        <v>41625.40881167868</v>
+        <v>43506.69200500075</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>41719</v>
       </c>
       <c r="B639">
-        <v>41411.72073074724</v>
+        <v>43259.88033325066</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>41726</v>
       </c>
       <c r="B640">
-        <v>41629.26382135987</v>
+        <v>43488.07474757995</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>41733</v>
       </c>
       <c r="B641">
-        <v>42031.89561296942</v>
+        <v>43924.71140296128</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>41740</v>
       </c>
       <c r="B642">
-        <v>41887.67755211404</v>
+        <v>43743.71606936311</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>41747</v>
       </c>
       <c r="B643">
-        <v>41893.82315373898</v>
+        <v>43760.58340864964</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>41754</v>
       </c>
       <c r="B644">
-        <v>41420.08223715807</v>
+        <v>43235.92936179601</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>41761</v>
       </c>
       <c r="B645">
-        <v>41681.79120885502</v>
+        <v>43520.74480737113</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>41768</v>
       </c>
       <c r="B646">
-        <v>41765.5196564203</v>
+        <v>43596.54799675792</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>41775</v>
       </c>
       <c r="B647">
-        <v>41628.49791820556</v>
+        <v>43461.85803050925</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>41782</v>
       </c>
       <c r="B648">
-        <v>41907.05651329559</v>
+        <v>43753.67558460281</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>41789</v>
       </c>
       <c r="B649">
-        <v>42016.18703482233</v>
+        <v>43869.71993270298</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>41796</v>
       </c>
       <c r="B650">
-        <v>42334.67903478604</v>
+        <v>44221.8662081622</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>41803</v>
       </c>
       <c r="B651">
-        <v>42255.82911528736</v>
+        <v>44164.40468626571</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>41810</v>
       </c>
       <c r="B652">
-        <v>42367.24635384965</v>
+        <v>44293.59019823407</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>41817</v>
       </c>
       <c r="B653">
-        <v>42381.57803415191</v>
+        <v>44305.3122813016</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>41824</v>
       </c>
       <c r="B654">
-        <v>42433.35169924961</v>
+        <v>44349.83341302455</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>41831</v>
       </c>
       <c r="B655">
-        <v>42345.58011526233</v>
+        <v>44256.98043135057</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>41838</v>
       </c>
       <c r="B656">
-        <v>42375.26550321088</v>
+        <v>44287.52036857054</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>41845</v>
       </c>
       <c r="B657">
-        <v>42441.3799359754</v>
+        <v>44355.48511053558</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>41852</v>
       </c>
       <c r="B658">
-        <v>42402.48215808477</v>
+        <v>44310.91468444964</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>41859</v>
       </c>
       <c r="B659">
-        <v>42315.86385432592</v>
+        <v>44173.59136498628</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>41866</v>
       </c>
       <c r="B660">
-        <v>42514.99787166109</v>
+        <v>44382.74796577379</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>41873</v>
       </c>
       <c r="B661">
-        <v>42539.11846715282</v>
+        <v>44417.68318903317</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>41880</v>
       </c>
       <c r="B662">
-        <v>42565.34777793876</v>
+        <v>44474.75417853297</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>41887</v>
       </c>
       <c r="B663">
-        <v>42617.06372889781</v>
+        <v>44530.83670645038</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>41894</v>
       </c>
       <c r="B664">
-        <v>42609.70057988826</v>
+        <v>44515.09004537058</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>41901</v>
       </c>
       <c r="B665">
-        <v>42684.00961717468</v>
+        <v>44605.89243520476</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>41908</v>
       </c>
       <c r="B666">
-        <v>42573.47139555199</v>
+        <v>44470.40321384447</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>41915</v>
       </c>
       <c r="B667">
-        <v>42543.637511268</v>
+        <v>44444.8352488794</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>41922</v>
       </c>
       <c r="B668">
-        <v>42565.22304700468</v>
+        <v>44447.50085951915</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5735,7 +5735,7 @@
         <v>41929</v>
       </c>
       <c r="B669">
-        <v>42760.52970391549</v>
+        <v>44606.88428812111</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>41936</v>
       </c>
       <c r="B670">
-        <v>42763.99815656529</v>
+        <v>44619.71810273405</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>41943</v>
       </c>
       <c r="B671">
-        <v>42492.202428323</v>
+        <v>44344.9500351505</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>41950</v>
       </c>
       <c r="B672">
-        <v>42533.8657082573</v>
+        <v>44392.67590056858</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>41957</v>
       </c>
       <c r="B673">
-        <v>42498.55620039842</v>
+        <v>44358.83088082015</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>41964</v>
       </c>
       <c r="B674">
-        <v>42466.96643878244</v>
+        <v>44322.01265455172</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>41971</v>
       </c>
       <c r="B675">
-        <v>42477.2214635491</v>
+        <v>44335.46452738465</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>41978</v>
       </c>
       <c r="B676">
-        <v>42437.01827824338</v>
+        <v>44318.44908613417</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>41985</v>
       </c>
       <c r="B677">
-        <v>42390.48607796123</v>
+        <v>44265.35186473226</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>41992</v>
       </c>
       <c r="B678">
-        <v>42345.20681062181</v>
+        <v>44216.55705203577</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>41999</v>
       </c>
       <c r="B679">
-        <v>42278.46998233809</v>
+        <v>44172.35144855337</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>42006</v>
       </c>
       <c r="B680">
-        <v>42289.44723202647</v>
+        <v>44181.85522367598</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>42013</v>
       </c>
       <c r="B681">
-        <v>42352.23784478223</v>
+        <v>44261.39164355348</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>42020</v>
       </c>
       <c r="B682">
-        <v>42352.61003090229</v>
+        <v>44253.93776969631</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>42027</v>
       </c>
       <c r="B683">
-        <v>42418.87158415101</v>
+        <v>44338.05511114017</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>42034</v>
       </c>
       <c r="B684">
-        <v>42500.18803405375</v>
+        <v>44425.43152585204</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>42041</v>
       </c>
       <c r="B685">
-        <v>42466.22205698783</v>
+        <v>44388.32514630674</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>42048</v>
       </c>
       <c r="B686">
-        <v>42502.13173076205</v>
+        <v>44431.86641190438</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>42055</v>
       </c>
       <c r="B687">
-        <v>42502.13173076205</v>
+        <v>44431.86641190438</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>42062</v>
       </c>
       <c r="B688">
-        <v>42704.67158995392</v>
+        <v>44662.67242320826</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>42069</v>
       </c>
       <c r="B689">
-        <v>42984.08219482061</v>
+        <v>44974.24329100825</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>42076</v>
       </c>
       <c r="B690">
-        <v>43065.09843047319</v>
+        <v>45048.95111347912</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5911,7 +5911,7 @@
         <v>42083</v>
       </c>
       <c r="B691">
-        <v>43390.0168698082</v>
+        <v>45395.96786922141</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>42090</v>
       </c>
       <c r="B692">
-        <v>43210.05151227154</v>
+        <v>45172.40636721579</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>42097</v>
       </c>
       <c r="B693">
-        <v>43460.35503994609</v>
+        <v>45440.22619311674</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>42104</v>
       </c>
       <c r="B694">
-        <v>43429.03114441604</v>
+        <v>45415.22925594749</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>42111</v>
       </c>
       <c r="B695">
-        <v>43679.62642754427</v>
+        <v>45671.90296162882</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>42118</v>
       </c>
       <c r="B696">
-        <v>43742.65105537733</v>
+        <v>45735.00140896893</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>42125</v>
       </c>
       <c r="B697">
-        <v>44193.77593592394</v>
+        <v>46228.52937471303</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>42132</v>
       </c>
       <c r="B698">
-        <v>43710.36021101958</v>
+        <v>45696.48603679254</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>42139</v>
       </c>
       <c r="B699">
-        <v>43694.98249148924</v>
+        <v>45672.39221157235</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>42146</v>
       </c>
       <c r="B700">
-        <v>43736.72095262713</v>
+        <v>45708.09530690071</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>42153</v>
       </c>
       <c r="B701">
-        <v>43846.94670937785</v>
+        <v>45842.22884274637</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5999,7 +5999,7 @@
         <v>42160</v>
       </c>
       <c r="B702">
-        <v>43864.81606110407</v>
+        <v>45846.42679297695</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>42167</v>
       </c>
       <c r="B703">
-        <v>44125.49452764093</v>
+        <v>46103.89804792238</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6015,7 +6015,7 @@
         <v>42174</v>
       </c>
       <c r="B704">
-        <v>43956.62653752902</v>
+        <v>45919.75881628242</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>42181</v>
       </c>
       <c r="B705">
-        <v>43963.05833922181</v>
+        <v>45926.37073729103</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>42188</v>
       </c>
       <c r="B706">
-        <v>43864.19412282712</v>
+        <v>45830.13620370777</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>42195</v>
       </c>
       <c r="B707">
-        <v>43968.39748633719</v>
+        <v>45909.98964612849</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>42202</v>
       </c>
       <c r="B708">
-        <v>44021.75797823793</v>
+        <v>45963.62486202404</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>42209</v>
       </c>
       <c r="B709">
-        <v>44263.22735321073</v>
+        <v>46200.0641558218</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>42216</v>
       </c>
       <c r="B710">
-        <v>44519.22269507111</v>
+        <v>46448.26679714732</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>42223</v>
       </c>
       <c r="B711">
-        <v>44644.53055494108</v>
+        <v>46584.7065026845</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>42230</v>
       </c>
       <c r="B712">
-        <v>44566.50229999481</v>
+        <v>46506.40424480086</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>42237</v>
       </c>
       <c r="B713">
-        <v>44933.99398803026</v>
+        <v>46887.69005373808</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>42244</v>
       </c>
       <c r="B714">
-        <v>44897.43322901062</v>
+        <v>46851.13219028687</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>42251</v>
       </c>
       <c r="B715">
-        <v>44838.88893499614</v>
+        <v>46792.58801720624</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>42258</v>
       </c>
       <c r="B716">
-        <v>44725.41121243708</v>
+        <v>46679.11029464719</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>42265</v>
       </c>
       <c r="B717">
-        <v>44795.25415468512</v>
+        <v>46748.95323689523</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>42272</v>
       </c>
       <c r="B718">
-        <v>44709.3442349005</v>
+        <v>46663.04331711061</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>42279</v>
       </c>
       <c r="B719">
-        <v>44634.90935700854</v>
+        <v>46588.61638750182</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>42286</v>
       </c>
       <c r="B720">
-        <v>44645.41188459158</v>
+        <v>46599.11891508484</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>42293</v>
       </c>
       <c r="B721">
-        <v>44785.58096160348</v>
+        <v>46739.28799209676</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>42300</v>
       </c>
       <c r="B722">
-        <v>45088.60086364418</v>
+        <v>47042.30888997326</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>42307</v>
       </c>
       <c r="B723">
-        <v>45173.01901405858</v>
+        <v>47128.22471042298</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>42314</v>
       </c>
       <c r="B724">
-        <v>45284.5679070506</v>
+        <v>47240.69007253052</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>42321</v>
       </c>
       <c r="B725">
-        <v>44895.45174236807</v>
+        <v>46876.03834544998</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>42328</v>
       </c>
       <c r="B726">
-        <v>45254.43309451508</v>
+        <v>47235.827525584</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6199,7 +6199,7 @@
         <v>42335</v>
       </c>
       <c r="B727">
-        <v>45256.54694818873</v>
+        <v>47237.1428049446</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>42342</v>
       </c>
       <c r="B728">
-        <v>45288.29116262094</v>
+        <v>47277.75402476712</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>42349</v>
       </c>
       <c r="B729">
-        <v>44947.85356394462</v>
+        <v>46915.09259713806</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>42356</v>
       </c>
       <c r="B730">
-        <v>45011.57786588073</v>
+        <v>46985.48072982973</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>42363</v>
       </c>
       <c r="B731">
-        <v>44919.75185613014</v>
+        <v>46893.2088729504</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>42370</v>
       </c>
       <c r="B732">
-        <v>45033.46461940074</v>
+        <v>47005.12892761892</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>42377</v>
       </c>
       <c r="B733">
-        <v>44969.82259889254</v>
+        <v>46933.72435317488</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>42384</v>
       </c>
       <c r="B734">
-        <v>44943.79754127177</v>
+        <v>46900.77450433416</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>42391</v>
       </c>
       <c r="B735">
-        <v>44969.91334792093</v>
+        <v>46926.89193507674</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>42398</v>
       </c>
       <c r="B736">
-        <v>44829.11764549082</v>
+        <v>46786.08969545946</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>42405</v>
       </c>
       <c r="B737">
-        <v>44802.46780518781</v>
+        <v>46759.44770680121</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>42412</v>
       </c>
       <c r="B738">
-        <v>44802.46780518781</v>
+        <v>46759.44770680121</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>42419</v>
       </c>
       <c r="B739">
-        <v>44916.58912832914</v>
+        <v>46873.56902994255</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>42426</v>
       </c>
       <c r="B740">
-        <v>45107.0091451503</v>
+        <v>47058.34641353486</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6311,7 +6311,7 @@
         <v>42433</v>
       </c>
       <c r="B741">
-        <v>45263.38826033514</v>
+        <v>47216.80268005501</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6319,7 +6319,7 @@
         <v>42440</v>
       </c>
       <c r="B742">
-        <v>45477.691426654</v>
+        <v>47428.07554334357</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>42447</v>
       </c>
       <c r="B743">
-        <v>45540.96348165801</v>
+        <v>47493.70053952404</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>42454</v>
       </c>
       <c r="B744">
-        <v>45368.83558637068</v>
+        <v>47323.98228279094</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6343,7 +6343,7 @@
         <v>42461</v>
       </c>
       <c r="B745">
-        <v>45464.21112596036</v>
+        <v>47423.68540199182</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>42468</v>
       </c>
       <c r="B746">
-        <v>45489.78347766872</v>
+        <v>47449.26275998287</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>42475</v>
       </c>
       <c r="B747">
-        <v>45449.70716471783</v>
+        <v>47409.18936298664</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>42482</v>
       </c>
       <c r="B748">
-        <v>45382.76122294032</v>
+        <v>47342.23430340669</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>42489</v>
       </c>
       <c r="B749">
-        <v>45187.97841283624</v>
+        <v>47147.46687309942</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>42496</v>
       </c>
       <c r="B750">
-        <v>45239.78915165736</v>
+        <v>47199.25968709245</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6391,7 +6391,7 @@
         <v>42503</v>
       </c>
       <c r="B751">
-        <v>45291.48086652333</v>
+        <v>47250.96421003444</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>42510</v>
       </c>
       <c r="B752">
-        <v>45154.30877631228</v>
+        <v>47113.79191437992</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>42517</v>
       </c>
       <c r="B753">
-        <v>45003.2920112439</v>
+        <v>46962.77276089534</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>42524</v>
       </c>
       <c r="B754">
-        <v>45037.56693195503</v>
+        <v>46997.04768160648</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>42531</v>
       </c>
       <c r="B755">
-        <v>45103.08676031613</v>
+        <v>47046.40788698466</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>42538</v>
       </c>
       <c r="B756">
-        <v>45102.66153034345</v>
+        <v>47043.13621230174</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>42545</v>
       </c>
       <c r="B757">
-        <v>44975.72089584553</v>
+        <v>46906.91185923638</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>42552</v>
       </c>
       <c r="B758">
-        <v>45260.60064762707</v>
+        <v>47199.93360609497</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>42559</v>
       </c>
       <c r="B759">
-        <v>45444.29657449668</v>
+        <v>47381.01533383666</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>42566</v>
       </c>
       <c r="B760">
-        <v>45699.99008304928</v>
+        <v>47632.56187891119</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>42573</v>
       </c>
       <c r="B761">
-        <v>46041.41214196151</v>
+        <v>47972.80703063426</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>42580</v>
       </c>
       <c r="B762">
-        <v>46049.40950174828</v>
+        <v>47977.40530450542</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>42587</v>
       </c>
       <c r="B763">
-        <v>46564.72575833525</v>
+        <v>48492.70113718072</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>42594</v>
       </c>
       <c r="B764">
-        <v>46662.67473781566</v>
+        <v>48593.66010015556</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>42601</v>
       </c>
       <c r="B765">
-        <v>47025.13526047767</v>
+        <v>48967.63719559205</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>42608</v>
       </c>
       <c r="B766">
-        <v>47286.37081985776</v>
+        <v>49268.99308046596</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>42615</v>
       </c>
       <c r="B767">
-        <v>47205.25334387035</v>
+        <v>49181.83939290961</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6527,7 +6527,7 @@
         <v>42622</v>
       </c>
       <c r="B768">
-        <v>48003.01018482509</v>
+        <v>50069.98995806234</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>42629</v>
       </c>
       <c r="B769">
-        <v>47382.16827357733</v>
+        <v>49366.25514329119</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>42636</v>
       </c>
       <c r="B770">
-        <v>48040.50460618721</v>
+        <v>50114.6061076808</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>42643</v>
       </c>
       <c r="B771">
-        <v>47880.07686874597</v>
+        <v>49934.03046529812</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6559,7 +6559,7 @@
         <v>42650</v>
       </c>
       <c r="B772">
-        <v>48131.68775530127</v>
+        <v>50208.22671631834</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6567,7 +6567,7 @@
         <v>42657</v>
       </c>
       <c r="B773">
-        <v>47213.25327936433</v>
+        <v>49177.04602273754</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>42664</v>
       </c>
       <c r="B774">
-        <v>47768.41816414477</v>
+        <v>49791.18983087863</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>42671</v>
       </c>
       <c r="B775">
-        <v>47733.74808795135</v>
+        <v>49743.73885024538</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>42678</v>
       </c>
       <c r="B776">
-        <v>47331.07260076796</v>
+        <v>49284.55827319457</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>42685</v>
       </c>
       <c r="B777">
-        <v>47500.08929335872</v>
+        <v>49472.43290529989</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>42692</v>
       </c>
       <c r="B778">
-        <v>47789.01412922938</v>
+        <v>49775.52273460449</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>42699</v>
       </c>
       <c r="B779">
-        <v>47869.76925974651</v>
+        <v>49862.75423002858</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>42706</v>
       </c>
       <c r="B780">
-        <v>48243.80983737479</v>
+        <v>50273.22191450404</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>42713</v>
       </c>
       <c r="B781">
-        <v>48323.21083057404</v>
+        <v>50354.72918087356</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>42720</v>
       </c>
       <c r="B782">
-        <v>48658.6444098815</v>
+        <v>50699.85314400483</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>42727</v>
       </c>
       <c r="B783">
-        <v>48003.69935264465</v>
+        <v>49999.43454455582</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6655,7 +6655,7 @@
         <v>42734</v>
       </c>
       <c r="B784">
-        <v>48310.35596989011</v>
+        <v>50311.60179600566</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>42741</v>
       </c>
       <c r="B785">
-        <v>48745.17024873193</v>
+        <v>50763.28417939498</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>42748</v>
       </c>
       <c r="B786">
-        <v>48674.14019425536</v>
+        <v>50707.11589156667</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>42755</v>
       </c>
       <c r="B787">
-        <v>48776.87270381534</v>
+        <v>50816.94357733961</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>42762</v>
       </c>
       <c r="B788">
-        <v>48858.35280704565</v>
+        <v>50903.09118405767</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>42769</v>
       </c>
       <c r="B789">
-        <v>49262.93644519083</v>
+        <v>51345.17759499708</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>42776</v>
       </c>
       <c r="B790">
-        <v>49565.81232309654</v>
+        <v>51659.63591904977</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>42783</v>
       </c>
       <c r="B791">
-        <v>49969.16517331923</v>
+        <v>52080.56150859728</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>42790</v>
       </c>
       <c r="B792">
-        <v>50381.13124988817</v>
+        <v>52442.54258896661</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6727,7 +6727,7 @@
         <v>42797</v>
       </c>
       <c r="B793">
-        <v>50432.11711606563</v>
+        <v>52527.19228969186</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>42804</v>
       </c>
       <c r="B794">
-        <v>50420.35669979947</v>
+        <v>52516.28461722669</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>42811</v>
       </c>
       <c r="B795">
-        <v>51200.14799758451</v>
+        <v>53372.4574499456</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>42818</v>
       </c>
       <c r="B796">
-        <v>51254.79120635704</v>
+        <v>53431.08133551276</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6759,7 +6759,7 @@
         <v>42825</v>
       </c>
       <c r="B797">
-        <v>50948.6336395537</v>
+        <v>53067.07074037747</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6767,7 +6767,7 @@
         <v>42832</v>
       </c>
       <c r="B798">
-        <v>51194.9887538812</v>
+        <v>53350.6472213509</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>42839</v>
       </c>
       <c r="B799">
-        <v>50391.78287327703</v>
+        <v>52440.06265082506</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6783,7 +6783,7 @@
         <v>42846</v>
       </c>
       <c r="B800">
-        <v>50531.51352099036</v>
+        <v>52584.78606692577</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>42853</v>
       </c>
       <c r="B801">
-        <v>50838.52987423368</v>
+        <v>52921.63631792369</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>42860</v>
       </c>
       <c r="B802">
-        <v>50939.21294870396</v>
+        <v>53037.42092475759</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6807,7 +6807,7 @@
         <v>42867</v>
       </c>
       <c r="B803">
-        <v>51003.4255208572</v>
+        <v>53105.77955593538</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>42874</v>
       </c>
       <c r="B804">
-        <v>51026.0017140897</v>
+        <v>53140.9361986747</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>42881</v>
       </c>
       <c r="B805">
-        <v>51281.82896515044</v>
+        <v>53434.29266613024</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>42888</v>
       </c>
       <c r="B806">
-        <v>51392.02305750598</v>
+        <v>53544.19462728572</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>42895</v>
       </c>
       <c r="B807">
-        <v>51418.24660088865</v>
+        <v>53566.29113851443</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>42902</v>
       </c>
       <c r="B808">
-        <v>51186.77512147684</v>
+        <v>53323.50384216622</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>42909</v>
       </c>
       <c r="B809">
-        <v>51355.61344154605</v>
+        <v>53490.84146061401</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6863,7 +6863,7 @@
         <v>42916</v>
       </c>
       <c r="B810">
-        <v>51463.79444612853</v>
+        <v>53600.70614357885</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>42923</v>
       </c>
       <c r="B811">
-        <v>51496.13564070686</v>
+        <v>53631.21669340399</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>42930</v>
       </c>
       <c r="B812">
-        <v>51641.60017979448</v>
+        <v>53784.10169527684</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>42937</v>
       </c>
       <c r="B813">
-        <v>51827.80137685794</v>
+        <v>53995.06085796885</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>42944</v>
       </c>
       <c r="B814">
-        <v>51904.4833288401</v>
+        <v>54072.03667489385</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>42951</v>
       </c>
       <c r="B815">
-        <v>52087.03505165207</v>
+        <v>54274.86468229095</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>42958</v>
       </c>
       <c r="B816">
-        <v>51954.45951479307</v>
+        <v>54131.68634684292</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>42965</v>
       </c>
       <c r="B817">
-        <v>52034.24606977683</v>
+        <v>54223.9047245534</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>42972</v>
       </c>
       <c r="B818">
-        <v>52298.43444017356</v>
+        <v>54523.87010227116</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>42979</v>
       </c>
       <c r="B819">
-        <v>52483.07651215712</v>
+        <v>54748.13163923578</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>42986</v>
       </c>
       <c r="B820">
-        <v>52573.18833476803</v>
+        <v>54849.36220523024</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6951,7 +6951,7 @@
         <v>42993</v>
       </c>
       <c r="B821">
-        <v>52473.97067326483</v>
+        <v>54754.33107129212</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>43000</v>
       </c>
       <c r="B822">
-        <v>52394.30797702167</v>
+        <v>54661.30610402569</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>43007</v>
       </c>
       <c r="B823">
-        <v>52341.85693135965</v>
+        <v>54605.51303515378</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>43014</v>
       </c>
       <c r="B824">
-        <v>52467.59055291986</v>
+        <v>54742.04340109793</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>43021</v>
       </c>
       <c r="B825">
-        <v>52552.78380592831</v>
+        <v>54833.39702478158</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>43028</v>
       </c>
       <c r="B826">
-        <v>52525.46457066367</v>
+        <v>54806.02291308902</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6999,7 +6999,7 @@
         <v>43035</v>
       </c>
       <c r="B827">
-        <v>52389.57968239429</v>
+        <v>54656.99951957529</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>43042</v>
       </c>
       <c r="B828">
-        <v>52439.14918933568</v>
+        <v>54703.43389841144</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>43049</v>
       </c>
       <c r="B829">
-        <v>52454.84591979055</v>
+        <v>54721.38647185887</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>43056</v>
       </c>
       <c r="B830">
-        <v>52533.12322691394</v>
+        <v>54808.15536856635</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>43063</v>
       </c>
       <c r="B831">
-        <v>52633.12313261033</v>
+        <v>54913.7475711233</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7039,7 +7039,7 @@
         <v>43070</v>
       </c>
       <c r="B832">
-        <v>52512.08489841783</v>
+        <v>54797.13356566351</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>43077</v>
       </c>
       <c r="B833">
-        <v>52401.15569742746</v>
+        <v>54687.31227449867</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>43084</v>
       </c>
       <c r="B834">
-        <v>52384.55566933838</v>
+        <v>54685.21798152747</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>43091</v>
       </c>
       <c r="B835">
-        <v>52549.28229986875</v>
+        <v>54864.73487450809</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>43098</v>
       </c>
       <c r="B836">
-        <v>52612.32886066212</v>
+        <v>54936.94476515704</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>43105</v>
       </c>
       <c r="B837">
-        <v>52926.62475820425</v>
+        <v>55262.99445407498</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>43112</v>
       </c>
       <c r="B838">
-        <v>52894.34519922316</v>
+        <v>55232.77042506943</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>43119</v>
       </c>
       <c r="B839">
-        <v>52900.53426375132</v>
+        <v>55248.18834140293</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>43126</v>
       </c>
       <c r="B840">
-        <v>52868.99841368978</v>
+        <v>55215.82096686998</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>43133</v>
       </c>
       <c r="B841">
-        <v>52846.63527282995</v>
+        <v>55193.36248778799</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>43140</v>
       </c>
       <c r="B842">
-        <v>52722.71233757272</v>
+        <v>55056.60099661206</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>43147</v>
       </c>
       <c r="B843">
-        <v>52713.66782130351</v>
+        <v>55051.35799219978</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>43154</v>
       </c>
       <c r="B844">
-        <v>52690.42278715096</v>
+        <v>55048.2691898324</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>43161</v>
       </c>
       <c r="B845">
-        <v>52796.06930730072</v>
+        <v>55159.60954734177</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>43168</v>
       </c>
       <c r="B846">
-        <v>52911.41975329266</v>
+        <v>55280.20423227588</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>43175</v>
       </c>
       <c r="B847">
-        <v>53075.49790945784</v>
+        <v>55465.96457686622</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>43182</v>
       </c>
       <c r="B848">
-        <v>53110.59127208711</v>
+        <v>55479.46198159076</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>43189</v>
       </c>
       <c r="B849">
-        <v>53376.09281272309</v>
+        <v>55766.47830635571</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>43196</v>
       </c>
       <c r="B850">
-        <v>53589.7053378071</v>
+        <v>55978.98845926311</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>43203</v>
       </c>
       <c r="B851">
-        <v>53769.60767122914</v>
+        <v>56181.64517966357</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>43210</v>
       </c>
       <c r="B852">
-        <v>54126.40329890058</v>
+        <v>56569.51863295899</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>43217</v>
       </c>
       <c r="B853">
-        <v>54006.53642335299</v>
+        <v>56431.728912689</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>43224</v>
       </c>
       <c r="B854">
-        <v>53908.10758038556</v>
+        <v>56316.94972844011</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>43231</v>
       </c>
       <c r="B855">
-        <v>54087.91088548511</v>
+        <v>56489.68804137086</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>43238</v>
       </c>
       <c r="B856">
-        <v>54280.78184083039</v>
+        <v>56696.39016761124</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>43245</v>
       </c>
       <c r="B857">
-        <v>54337.57662240558</v>
+        <v>56749.65526453258</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>43252</v>
       </c>
       <c r="B858">
-        <v>54445.18430662433</v>
+        <v>56883.80927526276</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7255,7 +7255,7 @@
         <v>43259</v>
       </c>
       <c r="B859">
-        <v>54727.37251095123</v>
+        <v>57191.55166153485</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>43266</v>
       </c>
       <c r="B860">
-        <v>54798.9159147207</v>
+        <v>57251.20587934431</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>43273</v>
       </c>
       <c r="B861">
-        <v>54434.59671781141</v>
+        <v>56876.16504198575</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>43280</v>
       </c>
       <c r="B862">
-        <v>54575.58701168571</v>
+        <v>57017.61646200325</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>43287</v>
       </c>
       <c r="B863">
-        <v>54558.09800683303</v>
+        <v>56993.11222068354</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>43294</v>
       </c>
       <c r="B864">
-        <v>54522.52596764745</v>
+        <v>56977.85235587784</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7303,7 +7303,7 @@
         <v>43301</v>
       </c>
       <c r="B865">
-        <v>54199.78222318333</v>
+        <v>56662.85880150112</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7311,7 +7311,7 @@
         <v>43308</v>
       </c>
       <c r="B866">
-        <v>54483.00671487265</v>
+        <v>56962.00254231002</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>43315</v>
       </c>
       <c r="B867">
-        <v>54220.51349242069</v>
+        <v>56689.63784020756</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>43322</v>
       </c>
       <c r="B868">
-        <v>54128.85625556941</v>
+        <v>56599.26490142976</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>43329</v>
       </c>
       <c r="B869">
-        <v>54332.26819939553</v>
+        <v>56806.66943575873</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>43336</v>
       </c>
       <c r="B870">
-        <v>54306.04226407254</v>
+        <v>56785.09342591752</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>43343</v>
       </c>
       <c r="B871">
-        <v>54272.93411773736</v>
+        <v>56788.20814938507</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>43350</v>
       </c>
       <c r="B872">
-        <v>54182.25042210816</v>
+        <v>56655.76393284743</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>43357</v>
       </c>
       <c r="B873">
-        <v>54402.96043503557</v>
+        <v>56895.67180447585</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>43364</v>
       </c>
       <c r="B874">
-        <v>54462.85425203264</v>
+        <v>56954.10266682436</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>43371</v>
       </c>
       <c r="B875">
-        <v>54374.72330973385</v>
+        <v>56860.8452182351</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>43378</v>
       </c>
       <c r="B876">
-        <v>54452.2843848718</v>
+        <v>56932.00874189235</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7399,7 +7399,7 @@
         <v>43385</v>
       </c>
       <c r="B877">
-        <v>54543.20678482333</v>
+        <v>56995.51291950967</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7407,7 +7407,7 @@
         <v>43392</v>
       </c>
       <c r="B878">
-        <v>54502.09484503351</v>
+        <v>56950.65312380217</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>43399</v>
       </c>
       <c r="B879">
-        <v>54803.4619176103</v>
+        <v>57252.02019637897</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>43406</v>
       </c>
       <c r="B880">
-        <v>54606.9731115613</v>
+        <v>57055.53139032996</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>43413</v>
       </c>
       <c r="B881">
-        <v>54616.12426723515</v>
+        <v>57064.68254600382</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>43420</v>
       </c>
       <c r="B882">
-        <v>54666.92800753495</v>
+        <v>57115.48777983852</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>43427</v>
       </c>
       <c r="B883">
-        <v>54637.40192377147</v>
+        <v>57085.95886457508</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7455,7 +7455,7 @@
         <v>43434</v>
       </c>
       <c r="B884">
-        <v>54416.04523260801</v>
+        <v>56864.6026789601</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>43441</v>
       </c>
       <c r="B885">
-        <v>54399.98588561479</v>
+        <v>56848.54183672427</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>43448</v>
       </c>
       <c r="B886">
-        <v>54480.79006664648</v>
+        <v>56929.34870793934</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>43455</v>
       </c>
       <c r="B887">
-        <v>54522.17133460869</v>
+        <v>56970.72997590154</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>43462</v>
       </c>
       <c r="B888">
-        <v>54592.25760778524</v>
+        <v>57039.55042629327</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>43469</v>
       </c>
       <c r="B889">
-        <v>54721.36482813177</v>
+        <v>57165.13132536494</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>43476</v>
       </c>
       <c r="B890">
-        <v>54461.88302748799</v>
+        <v>56912.95546427953</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>43483</v>
       </c>
       <c r="B891">
-        <v>54429.87104608882</v>
+        <v>56886.98438564197</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>43490</v>
       </c>
       <c r="B892">
-        <v>54450.67074090883</v>
+        <v>56907.78408046199</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7527,7 +7527,7 @@
         <v>43497</v>
       </c>
       <c r="B893">
-        <v>54491.40322875347</v>
+        <v>56948.51656830664</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>43504</v>
       </c>
       <c r="B894">
-        <v>54491.40322875347</v>
+        <v>56948.51656830664</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7543,7 +7543,7 @@
         <v>43511</v>
       </c>
       <c r="B895">
-        <v>54719.06443749239</v>
+        <v>57176.17777704554</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>43518</v>
       </c>
       <c r="B896">
-        <v>54971.15876579704</v>
+        <v>57418.51955804307</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>43525</v>
       </c>
       <c r="B897">
-        <v>55012.7096976184</v>
+        <v>57459.40735989095</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>43532</v>
       </c>
       <c r="B898">
-        <v>55228.43739613515</v>
+        <v>57674.73636665587</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>43539</v>
       </c>
       <c r="B899">
-        <v>55545.96004683481</v>
+        <v>57990.29294249792</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>43546</v>
       </c>
       <c r="B900">
-        <v>55756.11646260663</v>
+        <v>58193.49767379598</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>43553</v>
       </c>
       <c r="B901">
-        <v>55988.26082904494</v>
+        <v>58426.03879761499</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7599,7 +7599,7 @@
         <v>43560</v>
       </c>
       <c r="B902">
-        <v>56299.68519176079</v>
+        <v>58733.08384623756</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>43567</v>
       </c>
       <c r="B903">
-        <v>56361.75177505372</v>
+        <v>58793.92766042151</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7615,7 +7615,7 @@
         <v>43574</v>
       </c>
       <c r="B904">
-        <v>56437.28824480042</v>
+        <v>58863.4458238923</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>43581</v>
       </c>
       <c r="B905">
-        <v>56455.6716707309</v>
+        <v>58871.36693557376</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>43588</v>
       </c>
       <c r="B906">
-        <v>56692.71449115128</v>
+        <v>59108.41229187475</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7639,7 +7639,7 @@
         <v>43595</v>
       </c>
       <c r="B907">
-        <v>56137.95183395038</v>
+        <v>58553.64963467385</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>43602</v>
       </c>
       <c r="B908">
-        <v>56099.50670984493</v>
+        <v>58515.2045105684</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>43609</v>
       </c>
       <c r="B909">
-        <v>56302.34836929976</v>
+        <v>58718.04617002323</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>43616</v>
       </c>
       <c r="B910">
-        <v>56463.03162533706</v>
+        <v>58878.72942606053</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>43623</v>
       </c>
       <c r="B911">
-        <v>56433.66254662436</v>
+        <v>58849.3958224483</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>43630</v>
       </c>
       <c r="B912">
-        <v>56470.33820595592</v>
+        <v>58886.07615312051</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>43637</v>
       </c>
       <c r="B913">
-        <v>56547.54236220144</v>
+        <v>58963.26801617084</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>43644</v>
       </c>
       <c r="B914">
-        <v>56716.06313891877</v>
+        <v>59131.78879288816</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>43651</v>
       </c>
       <c r="B915">
-        <v>57278.864755125</v>
+        <v>59694.5904090944</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>43658</v>
       </c>
       <c r="B916">
-        <v>57554.08173748536</v>
+        <v>59969.80739145475</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>43665</v>
       </c>
       <c r="B917">
-        <v>57827.47234911672</v>
+        <v>60243.19800308611</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>43672</v>
       </c>
       <c r="B918">
-        <v>58106.85272946434</v>
+        <v>60523.45516955436</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>43679</v>
       </c>
       <c r="B919">
-        <v>57784.78402210028</v>
+        <v>60209.18057983736</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>43686</v>
       </c>
       <c r="B920">
-        <v>58080.58910601334</v>
+        <v>60504.98117061261</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>43693</v>
       </c>
       <c r="B921">
-        <v>58151.62274424356</v>
+        <v>60576.01793772608</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>43700</v>
       </c>
       <c r="B922">
-        <v>58142.72077896547</v>
+        <v>60567.11672495548</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>43707</v>
       </c>
       <c r="B923">
-        <v>58360.77865246362</v>
+        <v>60785.17500736962</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>43714</v>
       </c>
       <c r="B924">
-        <v>58605.59651673483</v>
+        <v>61029.98926593585</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>43721</v>
       </c>
       <c r="B925">
-        <v>58670.95778354826</v>
+        <v>61095.35053274927</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>43728</v>
       </c>
       <c r="B926">
-        <v>58805.41522952636</v>
+        <v>61229.80797872738</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>43735</v>
       </c>
       <c r="B927">
-        <v>58560.45685728277</v>
+        <v>60984.84960648378</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>43742</v>
       </c>
       <c r="B928">
-        <v>58776.99025905852</v>
+        <v>61201.38300825955</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>43749</v>
       </c>
       <c r="B929">
-        <v>58777.206454035</v>
+        <v>61201.59920323602</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7823,7 +7823,7 @@
         <v>43756</v>
       </c>
       <c r="B930">
-        <v>59021.59860578687</v>
+        <v>61445.9913549879</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>43763</v>
       </c>
       <c r="B931">
-        <v>59214.00720105047</v>
+        <v>61638.39995025149</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>43770</v>
       </c>
       <c r="B932">
-        <v>59392.75009238118</v>
+        <v>61812.98803075811</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>43777</v>
       </c>
       <c r="B933">
-        <v>59463.97241969419</v>
+        <v>61886.56013908391</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>43784</v>
       </c>
       <c r="B934">
-        <v>59468.56393491689</v>
+        <v>61888.80194629754</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>43791</v>
       </c>
       <c r="B935">
-        <v>59655.54751506817</v>
+        <v>62086.17265184861</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>43798</v>
       </c>
       <c r="B936">
-        <v>59724.59303374095</v>
+        <v>62149.78213072555</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>43805</v>
       </c>
       <c r="B937">
-        <v>59780.2238149499</v>
+        <v>62212.08301442238</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7887,7 +7887,7 @@
         <v>43812</v>
       </c>
       <c r="B938">
-        <v>59831.56904931472</v>
+        <v>62270.30050800776</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>43819</v>
       </c>
       <c r="B939">
-        <v>59897.13796477951</v>
+        <v>62362.05521274876</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>43826</v>
       </c>
       <c r="B940">
-        <v>60069.0287247372</v>
+        <v>62546.07719935932</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>43833</v>
       </c>
       <c r="B941">
-        <v>60171.99713476712</v>
+        <v>62676.38067231694</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>43840</v>
       </c>
       <c r="B942">
-        <v>60072.83839809185</v>
+        <v>62580.0811798615</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7927,7 +7927,7 @@
         <v>43847</v>
       </c>
       <c r="B943">
-        <v>60321.72116973283</v>
+        <v>62833.43610406239</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>43854</v>
       </c>
       <c r="B944">
-        <v>60418.55467332781</v>
+        <v>62936.91946688506</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7943,7 +7943,7 @@
         <v>43861</v>
       </c>
       <c r="B945">
-        <v>59881.99826859688</v>
+        <v>62367.16086296653</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>43868</v>
       </c>
       <c r="B946">
-        <v>59816.0750222594</v>
+        <v>62296.13792408795</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>43875</v>
       </c>
       <c r="B947">
-        <v>59795.17108707443</v>
+        <v>62279.8187007371</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>43882</v>
       </c>
       <c r="B948">
-        <v>59708.08158896813</v>
+        <v>62207.04617927223</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7975,7 +7975,7 @@
         <v>43889</v>
       </c>
       <c r="B949">
-        <v>59695.5466982437</v>
+        <v>62172.36214281941</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>43896</v>
       </c>
       <c r="B950">
-        <v>59673.51423365538</v>
+        <v>62169.7865150447</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>43903</v>
       </c>
       <c r="B951">
-        <v>59859.99955554336</v>
+        <v>62276.7447419284</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>43910</v>
       </c>
       <c r="B952">
-        <v>60197.35694902745</v>
+        <v>62584.60838723568</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>43917</v>
       </c>
       <c r="B953">
-        <v>60055.61075865175</v>
+        <v>62448.14331039708</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>43924</v>
       </c>
       <c r="B954">
-        <v>60027.75797372433</v>
+        <v>62424.80792858001</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>43931</v>
       </c>
       <c r="B955">
-        <v>59920.78474124691</v>
+        <v>62327.59245023436</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>43938</v>
       </c>
       <c r="B956">
-        <v>60084.69088036216</v>
+        <v>62491.9437494178</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>43945</v>
       </c>
       <c r="B957">
-        <v>60211.77993428099</v>
+        <v>62628.54275451951</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>43952</v>
       </c>
       <c r="B958">
-        <v>60553.33605228887</v>
+        <v>62971.60541930133</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>43959</v>
       </c>
       <c r="B959">
-        <v>60971.99239790517</v>
+        <v>63391.24185680124</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>43966</v>
       </c>
       <c r="B960">
-        <v>60842.88060552104</v>
+        <v>63262.43045492476</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>43973</v>
       </c>
       <c r="B961">
-        <v>61158.4901730561</v>
+        <v>63574.94208277634</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>43980</v>
       </c>
       <c r="B962">
-        <v>61473.54709295942</v>
+        <v>63890.0001212239</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>43987</v>
       </c>
       <c r="B963">
-        <v>62067.92798243733</v>
+        <v>64484.37803642892</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>43994</v>
       </c>
       <c r="B964">
-        <v>61527.68147284359</v>
+        <v>63919.68115199358</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>44001</v>
       </c>
       <c r="B965">
-        <v>62550.04667919491</v>
+        <v>64968.50775173776</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>44008</v>
       </c>
       <c r="B966">
-        <v>62656.10972897431</v>
+        <v>65076.57179857427</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>44015</v>
       </c>
       <c r="B967">
-        <v>63653.18552111501</v>
+        <v>66103.21587278839</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8127,7 +8127,7 @@
         <v>44022</v>
       </c>
       <c r="B968">
-        <v>64399.08991420966</v>
+        <v>66867.7493048515</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>44029</v>
       </c>
       <c r="B969">
-        <v>63968.29745436533</v>
+        <v>66408.55130807604</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>44036</v>
       </c>
       <c r="B970">
-        <v>64166.92259301036</v>
+        <v>66626.68896637727</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>44043</v>
       </c>
       <c r="B971">
-        <v>64355.42187707825</v>
+        <v>66831.53758092529</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>44050</v>
       </c>
       <c r="B972">
-        <v>65049.87861210681</v>
+        <v>67575.18299998256</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8167,7 +8167,7 @@
         <v>44057</v>
       </c>
       <c r="B973">
-        <v>65235.82172241464</v>
+        <v>67774.91830641923</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>44064</v>
       </c>
       <c r="B974">
-        <v>65406.59085284873</v>
+        <v>67959.6078986731</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>44071</v>
       </c>
       <c r="B975">
-        <v>66195.21162554371</v>
+        <v>68795.80058627162</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>44078</v>
       </c>
       <c r="B976">
-        <v>66713.42418563747</v>
+        <v>69379.13482514795</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>44085</v>
       </c>
       <c r="B977">
-        <v>66193.26583788174</v>
+        <v>68801.52358847493</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>44092</v>
       </c>
       <c r="B978">
-        <v>66903.70594902395</v>
+        <v>69549.324574742</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>44099</v>
       </c>
       <c r="B979">
-        <v>65108.18530289502</v>
+        <v>67653.29916364182</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8223,7 +8223,7 @@
         <v>44106</v>
       </c>
       <c r="B980">
-        <v>65432.53400291757</v>
+        <v>67988.95402562596</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>44113</v>
       </c>
       <c r="B981">
-        <v>65789.1805507945</v>
+        <v>68374.87400462804</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>44120</v>
       </c>
       <c r="B982">
-        <v>65673.46062553846</v>
+        <v>68266.47503067988</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>44127</v>
       </c>
       <c r="B983">
-        <v>65913.19183705449</v>
+        <v>68528.73882159717</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>44134</v>
       </c>
       <c r="B984">
-        <v>65662.12487260104</v>
+        <v>68252.70769589755</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>44141</v>
       </c>
       <c r="B985">
-        <v>65986.83402950472</v>
+        <v>68590.7891254124</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>44148</v>
       </c>
       <c r="B986">
-        <v>66347.07161249922</v>
+        <v>68989.78868604256</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>44155</v>
       </c>
       <c r="B987">
-        <v>66783.38708523208</v>
+        <v>69456.09346140898</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>44162</v>
       </c>
       <c r="B988">
-        <v>67581.85063294449</v>
+        <v>70307.44958651753</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>44169</v>
       </c>
       <c r="B989">
-        <v>67996.10615483455</v>
+        <v>70754.66747453457</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>44176</v>
       </c>
       <c r="B990">
-        <v>67825.98303054337</v>
+        <v>70579.89757078103</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>44183</v>
       </c>
       <c r="B991">
-        <v>68373.32999254517</v>
+        <v>71158.99634963623</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>44190</v>
       </c>
       <c r="B992">
-        <v>68766.31620472837</v>
+        <v>71596.27159590188</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>44197</v>
       </c>
       <c r="B993">
-        <v>69384.66292166297</v>
+        <v>72270.82258982614</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>44204</v>
       </c>
       <c r="B994">
-        <v>69164.55433575915</v>
+        <v>72071.38239354792</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8343,7 +8343,7 @@
         <v>44211</v>
       </c>
       <c r="B995">
-        <v>68434.75454603849</v>
+        <v>71272.25532663864</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>44218</v>
       </c>
       <c r="B996">
-        <v>68049.61481036345</v>
+        <v>70877.66919019882</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>44225</v>
       </c>
       <c r="B997">
-        <v>67737.80418100036</v>
+        <v>70529.46185573368</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>44232</v>
       </c>
       <c r="B998">
-        <v>67981.27679711801</v>
+        <v>70792.98647566108</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>44239</v>
       </c>
       <c r="B999">
-        <v>67981.27679711801</v>
+        <v>70792.98647566108</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>44246</v>
       </c>
       <c r="B1000">
-        <v>68599.50664873059</v>
+        <v>71411.21632727364</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>44253</v>
       </c>
       <c r="B1001">
-        <v>68829.83197630401</v>
+        <v>71661.64908748004</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>44260</v>
       </c>
       <c r="B1002">
-        <v>68737.4755644645</v>
+        <v>71590.21800439646</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>44267</v>
       </c>
       <c r="B1003">
-        <v>69183.57703443553</v>
+        <v>72051.001658247</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>44274</v>
       </c>
       <c r="B1004">
-        <v>69728.36224893171</v>
+        <v>72631.47338973069</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>44281</v>
       </c>
       <c r="B1005">
-        <v>70065.74892118809</v>
+        <v>72968.00112640751</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>44288</v>
       </c>
       <c r="B1006">
-        <v>70599.71659995982</v>
+        <v>73509.88953209651</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>44295</v>
       </c>
       <c r="B1007">
-        <v>71030.4374533432</v>
+        <v>73977.36919075889</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>44302</v>
       </c>
       <c r="B1008">
-        <v>71145.85320734489</v>
+        <v>74099.44905419258</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8455,7 +8455,7 @@
         <v>44309</v>
       </c>
       <c r="B1009">
-        <v>71332.05589981441</v>
+        <v>74319.7115699057</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>44316</v>
       </c>
       <c r="B1010">
-        <v>71761.79845095662</v>
+        <v>74745.91799905809</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>44323</v>
       </c>
       <c r="B1011">
-        <v>71456.84393083543</v>
+        <v>74389.1827690692</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>44330</v>
       </c>
       <c r="B1012">
-        <v>70411.03882397609</v>
+        <v>73331.37385977137</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>44337</v>
       </c>
       <c r="B1013">
-        <v>70759.72579974796</v>
+        <v>73680.98756934985</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>44344</v>
       </c>
       <c r="B1014">
-        <v>71012.15375996371</v>
+        <v>73932.57220009954</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>44351</v>
       </c>
       <c r="B1015">
-        <v>71305.60091885441</v>
+        <v>74226.01387654642</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>44358</v>
       </c>
       <c r="B1016">
-        <v>71312.29046271388</v>
+        <v>74232.7735876081</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>44365</v>
       </c>
       <c r="B1017">
-        <v>71627.40017232778</v>
+        <v>74547.93194963847</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>44372</v>
       </c>
       <c r="B1018">
-        <v>71918.10956809465</v>
+        <v>74850.77698265221</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>44379</v>
       </c>
       <c r="B1019">
-        <v>72300.9011092782</v>
+        <v>75229.34861396687</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>44386</v>
       </c>
       <c r="B1020">
-        <v>72277.89062872225</v>
+        <v>75215.67688150676</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>44393</v>
       </c>
       <c r="B1021">
-        <v>72126.89651309498</v>
+        <v>75075.26767642528</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>44400</v>
       </c>
       <c r="B1022">
-        <v>72087.19679425001</v>
+        <v>75045.64228563357</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>44407</v>
       </c>
       <c r="B1023">
-        <v>71867.81656148918</v>
+        <v>74818.58671293162</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>44414</v>
       </c>
       <c r="B1024">
-        <v>72081.75027566706</v>
+        <v>75043.04004761472</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>44421</v>
       </c>
       <c r="B1025">
-        <v>71894.39620145799</v>
+        <v>74839.93246987772</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8591,7 +8591,7 @@
         <v>44428</v>
       </c>
       <c r="B1026">
-        <v>72019.49945182947</v>
+        <v>74965.03566985465</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>44435</v>
       </c>
       <c r="B1027">
-        <v>72079.67115277854</v>
+        <v>75025.20273807268</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>44442</v>
       </c>
       <c r="B1028">
-        <v>71917.24904690526</v>
+        <v>74870.46129576642</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>44449</v>
       </c>
       <c r="B1029">
-        <v>72070.22477131033</v>
+        <v>75021.74124540156</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8623,7 +8623,7 @@
         <v>44456</v>
       </c>
       <c r="B1030">
-        <v>72086.75934217167</v>
+        <v>75039.00730081764</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>44463</v>
       </c>
       <c r="B1031">
-        <v>72117.33295752731</v>
+        <v>75069.58133734285</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>44470</v>
       </c>
       <c r="B1032">
-        <v>72167.64289329846</v>
+        <v>75123.31594518867</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8647,7 +8647,7 @@
         <v>44477</v>
       </c>
       <c r="B1033">
-        <v>72127.26916177824</v>
+        <v>75093.20766761879</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>44484</v>
       </c>
       <c r="B1034">
-        <v>72141.80046753059</v>
+        <v>75106.69408859799</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>44491</v>
       </c>
       <c r="B1035">
-        <v>72038.31465119102</v>
+        <v>75003.21340644029</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>44498</v>
       </c>
       <c r="B1036">
-        <v>71906.88871125945</v>
+        <v>74870.47581778582</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>44505</v>
       </c>
       <c r="B1037">
-        <v>71998.77560420439</v>
+        <v>74962.37629590716</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>44512</v>
       </c>
       <c r="B1038">
-        <v>71920.05575005431</v>
+        <v>74879.48826129516</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>44519</v>
       </c>
       <c r="B1039">
-        <v>71931.76368494416</v>
+        <v>74912.68513962551</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>44526</v>
       </c>
       <c r="B1040">
-        <v>71814.43919927333</v>
+        <v>74790.93691971396</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>44533</v>
       </c>
       <c r="B1041">
-        <v>71831.01821257903</v>
+        <v>74803.02319294449</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>44540</v>
       </c>
       <c r="B1042">
-        <v>71889.67751956779</v>
+        <v>74884.08964520236</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>44547</v>
       </c>
       <c r="B1043">
-        <v>71912.28118734085</v>
+        <v>74913.29517177017</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>44554</v>
       </c>
       <c r="B1044">
-        <v>71846.43712977372</v>
+        <v>74855.50307249023</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>44561</v>
       </c>
       <c r="B1045">
-        <v>71852.73484614947</v>
+        <v>74865.19884592472</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>44568</v>
       </c>
       <c r="B1046">
-        <v>71809.26310087786</v>
+        <v>74829.1642344985</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>44575</v>
       </c>
       <c r="B1047">
-        <v>71786.81321364558</v>
+        <v>74783.00169911947</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>44582</v>
       </c>
       <c r="B1048">
-        <v>71755.2517864637</v>
+        <v>74741.81164235229</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>44589</v>
       </c>
       <c r="B1049">
-        <v>71867.43366871898</v>
+        <v>74847.22047274727</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>44596</v>
       </c>
       <c r="B1050">
-        <v>71867.43366871898</v>
+        <v>74847.22047274727</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>44603</v>
       </c>
       <c r="B1051">
-        <v>71589.45707216072</v>
+        <v>74592.20069080632</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>44610</v>
       </c>
       <c r="B1052">
-        <v>71807.03426588773</v>
+        <v>74814.95793665797</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>44617</v>
       </c>
       <c r="B1053">
-        <v>71939.61594271529</v>
+        <v>74931.04550457926</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>44624</v>
       </c>
       <c r="B1054">
-        <v>72105.32584338369</v>
+        <v>75109.50715294092</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>44631</v>
       </c>
       <c r="B1055">
-        <v>72004.43987548545</v>
+        <v>74998.93273936139</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>44638</v>
       </c>
       <c r="B1056">
-        <v>72124.68884731093</v>
+        <v>75134.43223678104</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>44645</v>
       </c>
       <c r="B1057">
-        <v>72389.68576003282</v>
+        <v>75413.02208869076</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>44652</v>
       </c>
       <c r="B1058">
-        <v>72438.8956244196</v>
+        <v>75461.9113445954</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>44659</v>
       </c>
       <c r="B1059">
-        <v>72661.86341734316</v>
+        <v>75686.20233107843</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>44666</v>
       </c>
       <c r="B1060">
-        <v>72959.34245055361</v>
+        <v>75994.58388724663</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>44673</v>
       </c>
       <c r="B1061">
-        <v>73146.01361924532</v>
+        <v>76168.0958858571</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>44680</v>
       </c>
       <c r="B1062">
-        <v>73225.59852414802</v>
+        <v>76190.31097750283</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>44687</v>
       </c>
       <c r="B1063">
-        <v>73137.4456845317</v>
+        <v>76115.11604094363</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>44694</v>
       </c>
       <c r="B1064">
-        <v>72903.70527810552</v>
+        <v>75865.73582758964</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>44701</v>
       </c>
       <c r="B1065">
-        <v>72810.54069493774</v>
+        <v>75774.98655291302</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>44708</v>
       </c>
       <c r="B1066">
-        <v>72847.27966522153</v>
+        <v>75815.57808219231</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>44715</v>
       </c>
       <c r="B1067">
-        <v>72713.42772770056</v>
+        <v>75684.82353327207</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>44722</v>
       </c>
       <c r="B1068">
-        <v>72790.23708627628</v>
+        <v>75760.49668636953</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>44729</v>
       </c>
       <c r="B1069">
-        <v>72854.14499090855</v>
+        <v>75815.9968014452</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>44736</v>
       </c>
       <c r="B1070">
-        <v>72980.80955022296</v>
+        <v>75929.59317894143</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>44743</v>
       </c>
       <c r="B1071">
-        <v>73401.32884346609</v>
+        <v>76312.42250257971</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>44750</v>
       </c>
       <c r="B1072">
-        <v>73266.0621951763</v>
+        <v>76184.64649099404</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>44757</v>
       </c>
       <c r="B1073">
-        <v>73148.784294856</v>
+        <v>76067.36859067374</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>44764</v>
       </c>
       <c r="B1074">
-        <v>72946.69579229636</v>
+        <v>75865.2800881141</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>44771</v>
       </c>
       <c r="B1075">
-        <v>73232.45614407703</v>
+        <v>76151.04043989477</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>44778</v>
       </c>
       <c r="B1076">
-        <v>73342.32227317072</v>
+        <v>76260.90656898847</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>44785</v>
       </c>
       <c r="B1077">
-        <v>73435.07338202234</v>
+        <v>76353.65767784008</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>44792</v>
       </c>
       <c r="B1078">
-        <v>73652.35362735204</v>
+        <v>76570.93792316978</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>44799</v>
       </c>
       <c r="B1079">
-        <v>73963.90945381872</v>
+        <v>76882.49374963646</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>44806</v>
       </c>
       <c r="B1080">
-        <v>74078.93323832552</v>
+        <v>76997.51753414326</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>44813</v>
       </c>
       <c r="B1081">
-        <v>74341.56214004512</v>
+        <v>77260.14643586286</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9039,7 +9039,7 @@
         <v>44820</v>
       </c>
       <c r="B1082">
-        <v>74489.30982598713</v>
+        <v>77407.89412180487</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>44827</v>
       </c>
       <c r="B1083">
-        <v>74295.01257901074</v>
+        <v>77213.59687482848</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>44834</v>
       </c>
       <c r="B1084">
-        <v>74499.49921011906</v>
+        <v>77418.0835059368</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>44841</v>
       </c>
       <c r="B1085">
-        <v>74382.66572529083</v>
+        <v>77301.25002110857</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>44848</v>
       </c>
       <c r="B1086">
-        <v>74624.80680732481</v>
+        <v>77543.39110314255</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>44855</v>
       </c>
       <c r="B1087">
-        <v>74651.63483948185</v>
+        <v>77570.21913529959</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>44862</v>
       </c>
       <c r="B1088">
-        <v>74575.1367604734</v>
+        <v>77493.72105629114</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>44869</v>
       </c>
       <c r="B1089">
-        <v>74217.86126330029</v>
+        <v>77136.44555911803</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>44876</v>
       </c>
       <c r="B1090">
-        <v>74051.91160122339</v>
+        <v>76970.49589704112</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>44883</v>
       </c>
       <c r="B1091">
-        <v>74154.179571038</v>
+        <v>77072.76386685573</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>44890</v>
       </c>
       <c r="B1092">
-        <v>74251.1156244821</v>
+        <v>77169.69992029984</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>44897</v>
       </c>
       <c r="B1093">
-        <v>74666.98257144564</v>
+        <v>77585.56686726338</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>44904</v>
       </c>
       <c r="B1094">
-        <v>74665.61301244142</v>
+        <v>77584.19730825916</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>44911</v>
       </c>
       <c r="B1095">
-        <v>74679.92266229383</v>
+        <v>77598.50695811157</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>44918</v>
       </c>
       <c r="B1096">
-        <v>74779.3249779969</v>
+        <v>77697.90927381464</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>44925</v>
       </c>
       <c r="B1097">
-        <v>74880.65326163423</v>
+        <v>77799.23755745197</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>44932</v>
       </c>
       <c r="B1098">
-        <v>74631.32590543837</v>
+        <v>77549.91020125611</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>44939</v>
       </c>
       <c r="B1099">
-        <v>74491.51024109354</v>
+        <v>77410.09453691127</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>44946</v>
       </c>
       <c r="B1100">
-        <v>74545.75466465758</v>
+        <v>77464.33896047532</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>44953</v>
       </c>
       <c r="B1101">
-        <v>74545.75466465758</v>
+        <v>77464.33896047532</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>44960</v>
       </c>
       <c r="B1102">
-        <v>74850.77334622008</v>
+        <v>77769.35764203782</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>44967</v>
       </c>
       <c r="B1103">
-        <v>75059.36065196346</v>
+        <v>77977.9449477812</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>44974</v>
       </c>
       <c r="B1104">
-        <v>75718.17177194924</v>
+        <v>78636.75606776698</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>44981</v>
       </c>
       <c r="B1105">
-        <v>76426.27450295135</v>
+        <v>79344.85879876908</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>44988</v>
       </c>
       <c r="B1106">
-        <v>77066.62318796414</v>
+        <v>79985.20729357901</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9239,7 +9239,7 @@
         <v>44995</v>
       </c>
       <c r="B1107">
-        <v>76817.76583595225</v>
+        <v>79736.33700929902</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>45002</v>
       </c>
       <c r="B1108">
-        <v>76838.87700351419</v>
+        <v>79757.46153217084</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9255,7 +9255,7 @@
         <v>45009</v>
       </c>
       <c r="B1109">
-        <v>77644.62367407007</v>
+        <v>80563.20695755543</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>45016</v>
       </c>
       <c r="B1110">
-        <v>77781.16472689228</v>
+        <v>80699.73521033657</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>45023</v>
       </c>
       <c r="B1111">
-        <v>78052.22691529305</v>
+        <v>80970.81669798253</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>45030</v>
       </c>
       <c r="B1112">
-        <v>79184.42930578769</v>
+        <v>82102.99956822621</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>45037</v>
       </c>
       <c r="B1113">
-        <v>78313.23330878184</v>
+        <v>81231.81631046772</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>45044</v>
       </c>
       <c r="B1114">
-        <v>79266.27702600433</v>
+        <v>82184.85311705741</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>45051</v>
       </c>
       <c r="B1115">
-        <v>79740.73069916987</v>
+        <v>82659.32521034605</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>45058</v>
       </c>
       <c r="B1116">
-        <v>79304.65172097409</v>
+        <v>82223.24073365526</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>45065</v>
       </c>
       <c r="B1117">
-        <v>79868.93450442351</v>
+        <v>82787.51701439885</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>45072</v>
       </c>
       <c r="B1118">
-        <v>79946.57862373942</v>
+        <v>82865.17980057819</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>45079</v>
       </c>
       <c r="B1119">
-        <v>80994.91315462245</v>
+        <v>83913.51362538588</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9343,7 +9343,7 @@
         <v>45086</v>
       </c>
       <c r="B1120">
-        <v>81688.70293131299</v>
+        <v>84607.2732506655</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>45093</v>
       </c>
       <c r="B1121">
-        <v>81997.80579705155</v>
+        <v>84916.38375730578</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>45100</v>
       </c>
       <c r="B1122">
-        <v>82322.90807021684</v>
+        <v>85241.48100637423</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>45107</v>
       </c>
       <c r="B1123">
-        <v>82258.19985810752</v>
+        <v>85176.7438265815</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>45114</v>
       </c>
       <c r="B1124">
-        <v>82614.4917491841</v>
+        <v>85543.35119381266</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>45121</v>
       </c>
       <c r="B1125">
-        <v>83507.3983840415</v>
+        <v>86456.3451847953</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>45128</v>
       </c>
       <c r="B1126">
-        <v>83902.2357102907</v>
+        <v>86862.31149413687</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>45135</v>
       </c>
       <c r="B1127">
-        <v>84404.89957272248</v>
+        <v>87383.55166284996</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>45142</v>
       </c>
       <c r="B1128">
-        <v>83731.37986882414</v>
+        <v>86661.50345256229</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>45149</v>
       </c>
       <c r="B1129">
-        <v>83353.92900471942</v>
+        <v>86257.0086900365</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>45156</v>
       </c>
       <c r="B1130">
-        <v>83483.87993080413</v>
+        <v>86390.51535596761</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>45163</v>
       </c>
       <c r="B1131">
-        <v>83495.8788407878</v>
+        <v>86396.45367702807</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9439,7 +9439,7 @@
         <v>45170</v>
       </c>
       <c r="B1132">
-        <v>83477.18157951126</v>
+        <v>86395.37479204334</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>45177</v>
       </c>
       <c r="B1133">
-        <v>83534.26880488248</v>
+        <v>86467.6239799505</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9455,7 +9455,7 @@
         <v>45184</v>
       </c>
       <c r="B1134">
-        <v>83728.05710933445</v>
+        <v>86709.30869585741</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9463,7 +9463,7 @@
         <v>45191</v>
       </c>
       <c r="B1135">
-        <v>83363.17204876912</v>
+        <v>86313.62441221079</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>45198</v>
       </c>
       <c r="B1136">
-        <v>83498.90562069655</v>
+        <v>86458.2921249589</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9479,7 +9479,7 @@
         <v>45205</v>
       </c>
       <c r="B1137">
-        <v>83932.68548482106</v>
+        <v>86923.86977449636</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>45212</v>
       </c>
       <c r="B1138">
-        <v>83773.01699243691</v>
+        <v>86757.09872233402</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>45219</v>
       </c>
       <c r="B1139">
-        <v>83441.46641999972</v>
+        <v>86400.4919730804</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>45226</v>
       </c>
       <c r="B1140">
-        <v>83603.81502925398</v>
+        <v>86557.69335123856</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>45233</v>
       </c>
       <c r="B1141">
-        <v>83515.95034072654</v>
+        <v>86479.82289149283</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>45240</v>
       </c>
       <c r="B1142">
-        <v>83650.86940241007</v>
+        <v>86632.83362602271</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>45247</v>
       </c>
       <c r="B1143">
-        <v>83674.31422624821</v>
+        <v>86664.72109113849</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>45254</v>
       </c>
       <c r="B1144">
-        <v>83969.0543830746</v>
+        <v>87000.26962369794</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>45261</v>
       </c>
       <c r="B1145">
-        <v>84194.25083350972</v>
+        <v>87236.45915934585</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9551,7 +9551,15 @@
         <v>45268</v>
       </c>
       <c r="B1146">
-        <v>84245.00984066109</v>
+        <v>87241.34073433426</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2">
+      <c r="A1147" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B1147">
+        <v>87368.12125924214</v>
       </c>
     </row>
   </sheetData>
